--- a/data/CO2ConcentrationEquation.xlsx
+++ b/data/CO2ConcentrationEquation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadmium-Simulation-Environment\DEVS-Models\CovidSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE380F7-A1DB-4B27-96A0-56D2E7C46C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD417D-08BD-4A66-836C-E5A214926031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3390" yWindow="5130" windowWidth="7500" windowHeight="11385" xr2:uid="{29C7A327-B808-4D9D-A094-6977DD1551C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29C7A327-B808-4D9D-A094-6977DD1551C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>CO2Concentration</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>NumbOfPeople</t>
   </si>
   <si>
-    <t>CO2VentilationFactor</t>
+    <t>VolumeOfRoom 3mx3mx8m</t>
   </si>
   <si>
-    <t>AverageCO2Factor</t>
+    <t>ElapsedTime</t>
+  </si>
+  <si>
+    <t>RespIncPerMin(mg/min)</t>
+  </si>
+  <si>
+    <t>CO2PeoplePerMin(mg/min)</t>
+  </si>
+  <si>
+    <t>CO2InPerMin(mg/min)</t>
+  </si>
+  <si>
+    <t>ACHVentilation(Air Changes/Hour)</t>
+  </si>
+  <si>
+    <t>CO2Concentration(mg/L) with base=0.4</t>
+  </si>
+  <si>
+    <t>CO2Concentration(mg/L) without base=0.4</t>
+  </si>
+  <si>
+    <t>CO2OutPerMin(mg/L)</t>
+  </si>
+  <si>
+    <t>ventilationRate(L/min)</t>
   </si>
 </sst>
 </file>
@@ -397,233 +418,1549 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7165ACF-C1F5-4B27-8066-2CEDFD77D109}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>400+(($F$12+$F$14-B3)*E3)/($F$2*1000)</f>
+        <v>447.22222222222223</v>
+      </c>
+      <c r="B3">
+        <f>$F$8*A2</f>
+        <v>480000</v>
+      </c>
+      <c r="C3">
+        <f>(($F$12+$F$14-D3)*E3)/($F$2*1000)</f>
+        <v>47.222222222222221</v>
+      </c>
+      <c r="D3">
+        <f>$F$8*C2</f>
+        <v>480000</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>400+(($F$12+$F$14-B4)*E4)/($F$2*1000)</f>
+        <v>443.28703703703707</v>
+      </c>
+      <c r="B4">
+        <f>$F$8*A3</f>
+        <v>536666.66666666663</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">(($F$12+$F$14-D4)*E4)/($F$2*1000)</f>
+        <v>76.620370370370367</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D67" si="1">$F$8*C3</f>
+        <v>56666.666666666664</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>400+(($F$12+$F$14-B5)*E5)/($F$2*1000)</f>
+        <v>443.61496913580248</v>
+      </c>
+      <c r="B5">
+        <f>$F$8*A4</f>
+        <v>531944.4444444445</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>74.170524691358025</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>91944.444444444438</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>400+(($F$12+$F$14-B6)*E6)/($F$2*1000)</f>
+        <v>443.58764146090533</v>
+      </c>
+      <c r="B6">
+        <f>$F$8*A5</f>
+        <v>532337.96296296304</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>74.374678497942384</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>89004.629629629635</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>400+(($F$12+$F$14-B7)*E7)/($F$2*1000)</f>
+        <v>443.5899187671468</v>
+      </c>
+      <c r="B7">
+        <f>$F$8*A6</f>
+        <v>532305.1697530864</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>74.357665680727024</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>89249.614197530856</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>400+(($F$12+$F$14-B8)*E8)/($F$2*1000)</f>
+        <v>443.58972899162666</v>
+      </c>
+      <c r="B8">
+        <f>$F$8*A7</f>
+        <v>532307.90252057614</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>74.359083415494979</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>89229.198816872435</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <f>(($F$10*$F$2)/60)*1000</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>400+(($F$12+$F$14-B9)*E9)/($F$2*1000)</f>
+        <v>443.58974480625335</v>
+      </c>
+      <c r="B9">
+        <f>$F$8*A8</f>
+        <v>532307.674789952</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>74.35896527093098</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>89230.900098593978</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>400+(($F$12+$F$14-B10)*E10)/($F$2*1000)</f>
+        <v>443.58974348836779</v>
+      </c>
+      <c r="B10">
+        <f>$F$8*A9</f>
+        <v>532307.69376750407</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>74.358975116311314</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>89230.758325117175</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>0.0004+(((340*B2-(1888967*$D$2))*60)/113338000)</f>
-        <v>1.7999251795514302E-4</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f xml:space="preserve"> (340*B2*60)/113338000</f>
-        <v>1.7999258854047186E-4</v>
-      </c>
-      <c r="D2">
-        <f>0.0004</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f t="shared" ref="A3:A16" si="0">0.0004+(((340*B3-(1888967*$D$2))*60)/113338000)</f>
-        <v>3.599851064956149E-4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C16" si="1" xml:space="preserve"> (340*B3*60)/113338000</f>
-        <v>3.5998517708094372E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="0"/>
-        <v>5.3997769503608671E-4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="1"/>
-        <v>5.3997776562141563E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>7.1997028357655862E-4</v>
-      </c>
-      <c r="B5">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>400+(($F$12+$F$14-B11)*E11)/($F$2*1000)</f>
+        <v>443.5897435981916</v>
+      </c>
+      <c r="B11">
+        <f>$F$8*A10</f>
+        <v>532307.69218604139</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>74.35897429586295</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>89230.770139573578</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>7.1997035416188743E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>8.9996287211703053E-4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>8.9996294270235934E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>1.0799554606575024E-3</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>1.0799555312428313E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>1.2599480491979741E-3</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>1.259948119783303E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>1.439940637738446E-3</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>1.4399407083237749E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>1.6199332262789177E-3</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>1.6199332968642468E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>1.7999258148193897E-3</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>1.7999258854047187E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
-        <v>1.9799184033598618E-3</v>
+        <f>400+(($F$12+$F$14-B12)*E12)/($F$2*1000)</f>
+        <v>443.58974358903959</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <f>$F$8*A11</f>
+        <v>532307.69231782993</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>1.9799184739451906E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>74.358974364233646</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>89230.769155035538</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f>$F$4*$F$6</f>
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
-        <v>2.1599109919003333E-3</v>
+        <f>400+(($F$12+$F$14-B13)*E13)/($F$2*1000)</f>
+        <v>443.58974358980225</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <f>$F$8*A12</f>
+        <v>532307.69230684754</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>2.1599110624856625E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>74.358974358536088</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>89230.769237080371</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
-        <v>2.3399035804408052E-3</v>
+        <f>400+(($F$12+$F$14-B14)*E14)/($F$2*1000)</f>
+        <v>443.5897435897387</v>
       </c>
       <c r="B14">
-        <v>13</v>
+        <f>$F$8*A13</f>
+        <v>532307.69230776269</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>2.3399036510261344E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>74.358974359010887</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>89230.769230243299</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f>$F$8*400</f>
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
-        <v>2.5198961689812771E-3</v>
+        <f>400+(($F$12+$F$14-B15)*E15)/($F$2*1000)</f>
+        <v>443.58974358974399</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <f>$F$8*A14</f>
+        <v>532307.69230768643</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>2.5198962395666059E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>74.358974358971324</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>89230.769230813064</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
-        <v>2.699888757521749E-3</v>
+        <f>400+(($F$12+$F$14-B16)*E16)/($F$2*1000)</f>
+        <v>443.58974358974353</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <f>$F$8*A15</f>
+        <v>532307.69230769284</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>2.6998888281070778E-3</v>
+        <f t="shared" si="0"/>
+        <v>74.358974358974621</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>89230.769230765582</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>400+(($F$12+$F$14-B17)*E17)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B17">
+        <f>$F$8*A16</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>74.358974358974336</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>89230.76923076954</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>400+(($F$12+$F$14-B18)*E18)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B18">
+        <f>$F$8*A17</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>89230.769230769205</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>400+(($F$12+$F$14-B19)*E19)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B19">
+        <f>$F$8*A18</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>400+(($F$12+$F$14-B20)*E20)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B20">
+        <f>$F$8*A19</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>400+(($F$12+$F$14-B21)*E21)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B21">
+        <f>$F$8*A20</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>400+(($F$12+$F$14-B22)*E22)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B22">
+        <f>$F$8*A21</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>400+(($F$12+$F$14-B23)*E23)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B23">
+        <f>$F$8*A22</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>400+(($F$12+$F$14-B24)*E24)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B24">
+        <f>$F$8*A23</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>400+(($F$12+$F$14-B25)*E25)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B25">
+        <f>$F$8*A24</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>400+(($F$12+$F$14-B26)*E26)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B26">
+        <f>$F$8*A25</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>400+(($F$12+$F$14-B27)*E27)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B27">
+        <f>$F$8*A26</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>400+(($F$12+$F$14-B28)*E28)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B28">
+        <f>$F$8*A27</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>400+(($F$12+$F$14-B29)*E29)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B29">
+        <f>$F$8*A28</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>400+(($F$12+$F$14-B30)*E30)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B30">
+        <f>$F$8*A29</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>400+(($F$12+$F$14-B31)*E31)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B31">
+        <f>$F$8*A30</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>400+(($F$12+$F$14-B32)*E32)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B32">
+        <f>$F$8*A31</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>400+(($F$12+$F$14-B33)*E33)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B33">
+        <f>$F$8*A32</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>400+(($F$12+$F$14-B34)*E34)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B34">
+        <f>$F$8*A33</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>400+(($F$12+$F$14-B35)*E35)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B35">
+        <f>$F$8*A34</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f>400+(($F$12+$F$14-B36)*E36)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B36">
+        <f>$F$8*A35</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>400+(($F$12+$F$14-B37)*E37)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B37">
+        <f>$F$8*A36</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>400+(($F$12+$F$14-B38)*E38)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B38">
+        <f>$F$8*A37</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f>400+(($F$12+$F$14-B39)*E39)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B39">
+        <f>$F$8*A38</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f>400+(($F$12+$F$14-B40)*E40)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B40">
+        <f>$F$8*A39</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f>400+(($F$12+$F$14-B41)*E41)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B41">
+        <f>$F$8*A40</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f>400+(($F$12+$F$14-B42)*E42)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B42">
+        <f>$F$8*A41</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f>400+(($F$12+$F$14-B43)*E43)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B43">
+        <f>$F$8*A42</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f>400+(($F$12+$F$14-B44)*E44)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B44">
+        <f>$F$8*A43</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f>400+(($F$12+$F$14-B45)*E45)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B45">
+        <f>$F$8*A44</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f>400+(($F$12+$F$14-B46)*E46)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B46">
+        <f>$F$8*A45</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f>400+(($F$12+$F$14-B47)*E47)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B47">
+        <f>$F$8*A46</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>400+(($F$12+$F$14-B48)*E48)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B48">
+        <f>$F$8*A47</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>400+(($F$12+$F$14-B49)*E49)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B49">
+        <f>$F$8*A48</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>400+(($F$12+$F$14-B50)*E50)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B50">
+        <f>$F$8*A49</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f>400+(($F$12+$F$14-B51)*E51)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B51">
+        <f>$F$8*A50</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f>400+(($F$12+$F$14-B52)*E52)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B52">
+        <f>$F$8*A51</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>400+(($F$12+$F$14-B53)*E53)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B53">
+        <f>$F$8*A52</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>400+(($F$12+$F$14-B54)*E54)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B54">
+        <f>$F$8*A53</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>400+(($F$12+$F$14-B55)*E55)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B55">
+        <f>$F$8*A54</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>400+(($F$12+$F$14-B56)*E56)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B56">
+        <f>$F$8*A55</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f>400+(($F$12+$F$14-B57)*E57)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B57">
+        <f>$F$8*A56</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f>400+(($F$12+$F$14-B58)*E58)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B58">
+        <f>$F$8*A57</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f>400+(($F$12+$F$14-B59)*E59)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B59">
+        <f>$F$8*A58</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f>400+(($F$12+$F$14-B60)*E60)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B60">
+        <f>$F$8*A59</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>400+(($F$12+$F$14-B61)*E61)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B61">
+        <f>$F$8*A60</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f>400+(($F$12+$F$14-B62)*E62)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B62">
+        <f>$F$8*A61</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f>400+(($F$12+$F$14-B63)*E63)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B63">
+        <f>$F$8*A62</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f>400+(($F$12+$F$14-B64)*E64)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B64">
+        <f>$F$8*A63</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f>400+(($F$12+$F$14-B65)*E65)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B65">
+        <f>$F$8*A64</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f>400+(($F$12+$F$14-B66)*E66)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B66">
+        <f>$F$8*A65</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f>400+(($F$12+$F$14-B67)*E67)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B67">
+        <f>$F$8*A66</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f>400+(($F$12+$F$14-B68)*E68)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B68">
+        <f>$F$8*A67</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C71" si="2">(($F$12+$F$14-D68)*E68)/($F$2*1000)</f>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:D71" si="3">$F$8*C67</f>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f>400+(($F$12+$F$14-B69)*E69)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B69">
+        <f>$F$8*A68</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f>400+(($F$12+$F$14-B70)*E70)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B70">
+        <f>$F$8*A69</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f>400+(($F$12+$F$14-B71)*E71)/($F$2*1000)</f>
+        <v>443.58974358974359</v>
+      </c>
+      <c r="B71">
+        <f>$F$8*A70</f>
+        <v>532307.69230769225</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>74.358974358974365</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>89230.769230769234</v>
+      </c>
+      <c r="E71">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C3:C71" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/CO2ConcentrationEquation.xlsx
+++ b/data/CO2ConcentrationEquation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadmium-Simulation-Environment\DEVS-Models\CovidSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD417D-08BD-4A66-836C-E5A214926031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47E6169-992A-41EE-8D80-E2D1B1238E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29C7A327-B808-4D9D-A094-6977DD1551C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NumbOfPeople</t>
   </si>
@@ -57,16 +57,16 @@
     <t>ACHVentilation(Air Changes/Hour)</t>
   </si>
   <si>
-    <t>CO2Concentration(mg/L) with base=0.4</t>
+    <t>ventilationRate(L/min)</t>
   </si>
   <si>
-    <t>CO2Concentration(mg/L) without base=0.4</t>
+    <t>CO2Concentration(mg/L) with base=400</t>
   </si>
   <si>
-    <t>CO2OutPerMin(mg/L)</t>
+    <t>CO2Concentration(mg/L) Flow</t>
   </si>
   <si>
-    <t>ventilationRate(L/min)</t>
+    <t>CO2OutPerMin(mg/min)</t>
   </si>
 </sst>
 </file>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7165ACF-C1F5-4B27-8066-2CEDFD77D109}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,15 +437,12 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
         <v>9</v>
       </c>
       <c r="E1" t="s">
@@ -460,10 +457,11 @@
         <v>400</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <f>(400*$F$8)*E2/($F$2*1000)</f>
+        <v>800</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <v>72</v>
@@ -471,23 +469,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>400+(($F$12+$F$14-B3)*E3)/($F$2*1000)</f>
-        <v>447.22222222222223</v>
+        <f>A2+C3</f>
+        <v>1250</v>
       </c>
       <c r="B3">
-        <f>$F$8*A2</f>
-        <v>480000</v>
+        <f>($F$8*A2)</f>
+        <v>960000</v>
       </c>
       <c r="C3">
-        <f>(($F$12+$F$14-D3)*E3)/($F$2*1000)</f>
-        <v>47.222222222222221</v>
-      </c>
-      <c r="D3">
-        <f>$F$8*C2</f>
-        <v>480000</v>
+        <f>(($F$12+$F$14-B3)*E3)/($F$2*1000)</f>
+        <v>850</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -495,23 +489,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>400+(($F$12+$F$14-B4)*E4)/($F$2*1000)</f>
-        <v>443.28703703703707</v>
+        <f>A3+C4</f>
+        <v>400</v>
       </c>
       <c r="B4">
-        <f>$F$8*A3</f>
-        <v>536666.66666666663</v>
+        <f t="shared" ref="B4:B67" si="0">($F$8*A3)</f>
+        <v>3000000</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">(($F$12+$F$14-D4)*E4)/($F$2*1000)</f>
-        <v>76.620370370370367</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D67" si="1">$F$8*C3</f>
-        <v>56666.666666666664</v>
+        <f t="shared" ref="C4:C67" si="1">(($F$12+$F$14-B4)*E4)/($F$2*1000)</f>
+        <v>-850</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F4">
         <v>340000</v>
@@ -519,23 +509,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>400+(($F$12+$F$14-B5)*E5)/($F$2*1000)</f>
-        <v>443.61496913580248</v>
+        <f t="shared" ref="A4:A14" si="2">A4+C5</f>
+        <v>1250</v>
       </c>
       <c r="B5">
-        <f>$F$8*A4</f>
-        <v>531944.4444444445</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>74.170524691358025</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>91944.444444444438</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -543,96 +529,80 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>400+(($F$12+$F$14-B6)*E6)/($F$2*1000)</f>
-        <v>443.58764146090533</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="B6">
-        <f>$F$8*A5</f>
-        <v>532337.96296296304</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>74.374678497942384</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>89004.629629629635</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>400+(($F$12+$F$14-B7)*E7)/($F$2*1000)</f>
-        <v>443.5899187671468</v>
+        <f>A6+C7</f>
+        <v>1250</v>
       </c>
       <c r="B7">
-        <f>$F$8*A6</f>
-        <v>532305.1697530864</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>74.357665680727024</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>89249.614197530856</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>400+(($F$12+$F$14-B8)*E8)/($F$2*1000)</f>
-        <v>443.58972899162666</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="B8">
-        <f>$F$8*A7</f>
-        <v>532307.90252057614</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>74.359083415494979</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>89229.198816872435</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <f>(($F$10*$F$2)/60)*1000</f>
-        <v>1200</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>400+(($F$12+$F$14-B9)*E9)/($F$2*1000)</f>
-        <v>443.58974480625335</v>
+        <f t="shared" si="2"/>
+        <v>1250</v>
       </c>
       <c r="B9">
-        <f>$F$8*A8</f>
-        <v>532307.674789952</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>74.35896527093098</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>89230.900098593978</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -640,47 +610,39 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>400+(($F$12+$F$14-B10)*E10)/($F$2*1000)</f>
-        <v>443.58974348836779</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="B10">
-        <f>$F$8*A9</f>
-        <v>532307.69376750407</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>74.358975116311314</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>89230.758325117175</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>400+(($F$12+$F$14-B11)*E11)/($F$2*1000)</f>
-        <v>443.5897435981916</v>
+        <f t="shared" si="2"/>
+        <v>1250</v>
       </c>
       <c r="B11">
-        <f>$F$8*A10</f>
-        <v>532307.69218604139</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>74.35897429586295</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>89230.770139573578</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
@@ -688,48 +650,40 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>400+(($F$12+$F$14-B12)*E12)/($F$2*1000)</f>
-        <v>443.58974358903959</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="B12">
-        <f>$F$8*A11</f>
-        <v>532307.69231782993</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>74.358974364233646</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>89230.769155035538</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F12">
         <f>$F$4*$F$6</f>
-        <v>680000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>400+(($F$12+$F$14-B13)*E13)/($F$2*1000)</f>
-        <v>443.58974358980225</v>
+        <f t="shared" si="2"/>
+        <v>1250</v>
       </c>
       <c r="B13">
-        <f>$F$8*A12</f>
-        <v>532307.69230684754</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>74.358974358536088</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>89230.769237080371</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -737,1230 +691,3540 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>400+(($F$12+$F$14-B14)*E14)/($F$2*1000)</f>
-        <v>443.5897435897387</v>
+        <f t="shared" si="2"/>
+        <v>400</v>
       </c>
       <c r="B14">
-        <f>$F$8*A13</f>
-        <v>532307.69230776269</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>74.358974359010887</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>89230.769230243299</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F14">
         <f>$F$8*400</f>
-        <v>480000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>400+(($F$12+$F$14-B15)*E15)/($F$2*1000)</f>
-        <v>443.58974358974399</v>
+        <f t="shared" ref="A4:A67" si="3">A14+(($F$12+$F$14-B15)*E15)/($F$2*1000)</f>
+        <v>1250</v>
       </c>
       <c r="B15">
-        <f>$F$8*A14</f>
-        <v>532307.69230768643</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>74.358974358971324</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>89230.769230813064</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>400+(($F$12+$F$14-B16)*E16)/($F$2*1000)</f>
-        <v>443.58974358974353</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B16">
-        <f>$F$8*A15</f>
-        <v>532307.69230769284</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>74.358974358974621</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>89230.769230765582</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>400+(($F$12+$F$14-B17)*E17)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B17">
-        <f>$F$8*A16</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>74.358974358974336</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>89230.76923076954</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>400+(($F$12+$F$14-B18)*E18)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B18">
-        <f>$F$8*A17</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>89230.769230769205</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>400+(($F$12+$F$14-B19)*E19)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B19">
-        <f>$F$8*A18</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>400+(($F$12+$F$14-B20)*E20)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B20">
-        <f>$F$8*A19</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>400+(($F$12+$F$14-B21)*E21)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B21">
-        <f>$F$8*A20</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>400+(($F$12+$F$14-B22)*E22)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B22">
-        <f>$F$8*A21</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>400+(($F$12+$F$14-B23)*E23)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B23">
-        <f>$F$8*A22</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>400+(($F$12+$F$14-B24)*E24)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B24">
-        <f>$F$8*A23</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>400+(($F$12+$F$14-B25)*E25)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B25">
-        <f>$F$8*A24</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>400+(($F$12+$F$14-B26)*E26)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B26">
-        <f>$F$8*A25</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>400+(($F$12+$F$14-B27)*E27)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B27">
-        <f>$F$8*A26</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>400+(($F$12+$F$14-B28)*E28)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B28">
-        <f>$F$8*A27</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>400+(($F$12+$F$14-B29)*E29)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B29">
-        <f>$F$8*A28</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>400+(($F$12+$F$14-B30)*E30)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B30">
-        <f>$F$8*A29</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>400+(($F$12+$F$14-B31)*E31)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B31">
-        <f>$F$8*A30</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>400+(($F$12+$F$14-B32)*E32)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B32">
-        <f>$F$8*A31</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>400+(($F$12+$F$14-B33)*E33)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B33">
-        <f>$F$8*A32</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>400+(($F$12+$F$14-B34)*E34)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B34">
-        <f>$F$8*A33</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>400+(($F$12+$F$14-B35)*E35)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B35">
-        <f>$F$8*A34</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E35">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>400+(($F$12+$F$14-B36)*E36)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B36">
-        <f>$F$8*A35</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>400+(($F$12+$F$14-B37)*E37)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B37">
-        <f>$F$8*A36</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>400+(($F$12+$F$14-B38)*E38)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B38">
-        <f>$F$8*A37</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>400+(($F$12+$F$14-B39)*E39)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B39">
-        <f>$F$8*A38</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>400+(($F$12+$F$14-B40)*E40)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B40">
-        <f>$F$8*A39</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>400+(($F$12+$F$14-B41)*E41)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B41">
-        <f>$F$8*A40</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>400+(($F$12+$F$14-B42)*E42)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B42">
-        <f>$F$8*A41</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>400+(($F$12+$F$14-B43)*E43)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B43">
-        <f>$F$8*A42</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>400+(($F$12+$F$14-B44)*E44)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B44">
-        <f>$F$8*A43</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>400+(($F$12+$F$14-B45)*E45)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B45">
-        <f>$F$8*A44</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>400+(($F$12+$F$14-B46)*E46)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B46">
-        <f>$F$8*A45</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>400+(($F$12+$F$14-B47)*E47)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B47">
-        <f>$F$8*A46</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>400+(($F$12+$F$14-B48)*E48)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B48">
-        <f>$F$8*A47</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>400+(($F$12+$F$14-B49)*E49)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B49">
-        <f>$F$8*A48</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>400+(($F$12+$F$14-B50)*E50)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B50">
-        <f>$F$8*A49</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>400+(($F$12+$F$14-B51)*E51)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B51">
-        <f>$F$8*A50</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>400+(($F$12+$F$14-B52)*E52)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B52">
-        <f>$F$8*A51</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>400+(($F$12+$F$14-B53)*E53)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B53">
-        <f>$F$8*A52</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>400+(($F$12+$F$14-B54)*E54)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B54">
-        <f>$F$8*A53</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>400+(($F$12+$F$14-B55)*E55)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B55">
-        <f>$F$8*A54</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>400+(($F$12+$F$14-B56)*E56)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B56">
-        <f>$F$8*A55</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D56">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>400+(($F$12+$F$14-B57)*E57)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B57">
-        <f>$F$8*A56</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D57">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>400+(($F$12+$F$14-B58)*E58)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B58">
-        <f>$F$8*A57</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D58">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E58">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>400+(($F$12+$F$14-B59)*E59)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B59">
-        <f>$F$8*A58</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D59">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E59">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>400+(($F$12+$F$14-B60)*E60)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B60">
-        <f>$F$8*A59</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D60">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E60">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>400+(($F$12+$F$14-B61)*E61)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B61">
-        <f>$F$8*A60</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D61">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E61">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>400+(($F$12+$F$14-B62)*E62)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B62">
-        <f>$F$8*A61</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D62">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>400+(($F$12+$F$14-B63)*E63)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B63">
-        <f>$F$8*A62</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>400+(($F$12+$F$14-B64)*E64)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B64">
-        <f>$F$8*A63</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D64">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>400+(($F$12+$F$14-B65)*E65)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B65">
-        <f>$F$8*A64</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>400+(($F$12+$F$14-B66)*E66)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>400</v>
       </c>
       <c r="B66">
-        <f>$F$8*A65</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>3000000</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D66">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>-850</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>400+(($F$12+$F$14-B67)*E67)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="3"/>
+        <v>1250</v>
       </c>
       <c r="B67">
-        <f>$F$8*A66</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="0"/>
+        <v>960000</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="1"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="1"/>
+        <v>850</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>400+(($F$12+$F$14-B68)*E68)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" ref="A68:A131" si="4">A67+(($F$12+$F$14-B68)*E68)/($F$2*1000)</f>
+        <v>400</v>
       </c>
       <c r="B68">
-        <f>$F$8*A67</f>
-        <v>532307.69230769225</v>
+        <f t="shared" ref="B68:B131" si="5">($F$8*A67)</f>
+        <v>3000000</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C71" si="2">(($F$12+$F$14-D68)*E68)/($F$2*1000)</f>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D68">
-        <f t="shared" ref="D68:D71" si="3">$F$8*C67</f>
-        <v>89230.769230769234</v>
+        <f t="shared" ref="C68:C131" si="6">(($F$12+$F$14-B68)*E68)/($F$2*1000)</f>
+        <v>-850</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>400+(($F$12+$F$14-B69)*E69)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="4"/>
+        <v>1250</v>
       </c>
       <c r="B69">
-        <f>$F$8*A68</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="5"/>
+        <v>960000</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="3"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="6"/>
+        <v>850</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>400+(($F$12+$F$14-B70)*E70)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="4"/>
+        <v>400</v>
       </c>
       <c r="B70">
-        <f>$F$8*A69</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="5"/>
+        <v>3000000</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="3"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="6"/>
+        <v>-850</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>400+(($F$12+$F$14-B71)*E71)/($F$2*1000)</f>
-        <v>443.58974358974359</v>
+        <f t="shared" si="4"/>
+        <v>1250</v>
       </c>
       <c r="B71">
-        <f>$F$8*A70</f>
-        <v>532307.69230769225</v>
+        <f t="shared" si="5"/>
+        <v>960000</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
-        <v>74.358974358974365</v>
-      </c>
-      <c r="D71">
-        <f t="shared" si="3"/>
-        <v>89230.769230769234</v>
+        <f t="shared" si="6"/>
+        <v>850</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E73">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E74">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E76">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E77">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E78">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E80">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E81">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E83">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E84">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E85">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E88">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E90">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E91">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E92">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E93">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E94">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E95">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E96">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E97">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E98">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E99">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E101">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E102">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E103">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E104">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E105">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E106">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E107">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E108">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E109">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E110">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E111">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E112">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E113">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E114">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E115">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E116">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E117">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E118">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E119">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E120">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E122">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E124">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E125">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E126">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E127">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E128">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E129">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="5"/>
+        <v>3000000</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="6"/>
+        <v>-850</v>
+      </c>
+      <c r="E130">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="4"/>
+        <v>1250</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="5"/>
+        <v>960000</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="6"/>
+        <v>850</v>
+      </c>
+      <c r="E131">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" ref="A132:A195" si="7">A131+(($F$12+$F$14-B132)*E132)/($F$2*1000)</f>
+        <v>400</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132:B171" si="8">($F$8*A131)</f>
+        <v>3000000</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C195" si="9">(($F$12+$F$14-B132)*E132)/($F$2*1000)</f>
+        <v>-850</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="7"/>
+        <v>1250</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="8"/>
+        <v>960000</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="9"/>
+        <v>850</v>
+      </c>
+      <c r="E133">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="8"/>
+        <v>3000000</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="9"/>
+        <v>-850</v>
+      </c>
+      <c r="E134">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="7"/>
+        <v>1250</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="8"/>
+        <v>960000</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="9"/>
+        <v>850</v>
+      </c>
+      <c r="E135">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="8"/>
+        <v>3000000</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="9"/>
+        <v>-850</v>
+      </c>
+      <c r="E136">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="7"/>
+        <v>1250</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="8"/>
+        <v>960000</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="9"/>
+        <v>850</v>
+      </c>
+      <c r="E137">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="8"/>
+        <v>3000000</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="9"/>
+        <v>-850</v>
+      </c>
+      <c r="E138">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="8"/>
+        <v>960000</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="9"/>
+        <v>425</v>
+      </c>
+      <c r="E139">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="8"/>
+        <v>1980000</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B172">
+        <f t="shared" ref="B132:B195" si="10">($F$8*A171)</f>
+        <v>1980000</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="7"/>
+        <v>825</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="10"/>
+        <v>1980000</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" ref="A196:A220" si="11">A195+(($F$12+$F$14-B196)*E196)/($F$2*1000)</f>
+        <v>825</v>
+      </c>
+      <c r="B196">
+        <f t="shared" ref="B196:B220" si="12">($F$8*A195)</f>
+        <v>1980000</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:C222" si="13">(($F$12+$F$14-B196)*E196)/($F$2*1000)</f>
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="11"/>
+        <v>825</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="12"/>
+        <v>1980000</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C221">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C222">
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C3:C71" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/data/CO2ConcentrationEquation.xlsx
+++ b/data/CO2ConcentrationEquation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadmium-Simulation-Environment\DEVS-Models\CovidSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47E6169-992A-41EE-8D80-E2D1B1238E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B9F245-D808-4DFF-A2EE-294FACD967B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29C7A327-B808-4D9D-A094-6977DD1551C8}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:F222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,10 +458,10 @@
       </c>
       <c r="C2">
         <f>(400*$F$8)*E2/($F$2*1000)</f>
-        <v>800</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>72</v>
@@ -470,7 +470,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+C3</f>
-        <v>1250</v>
+        <v>1108.3333333333335</v>
       </c>
       <c r="B3">
         <f>($F$8*A2)</f>
@@ -478,10 +478,10 @@
       </c>
       <c r="C3">
         <f>(($F$12+$F$14-B3)*E3)/($F$2*1000)</f>
-        <v>850</v>
+        <v>708.33333333333337</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -490,18 +490,18 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+C4</f>
-        <v>400</v>
+        <v>636.11111111111097</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B67" si="0">($F$8*A3)</f>
-        <v>3000000</v>
+        <v>2660000.0000000005</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">(($F$12+$F$14-B4)*E4)/($F$2*1000)</f>
-        <v>-850</v>
+        <v>-472.22222222222251</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>340000</v>
@@ -509,19 +509,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A4:A14" si="2">A4+C5</f>
-        <v>1250</v>
+        <f t="shared" ref="A5:A14" si="2">A4+C5</f>
+        <v>950.92592592592609</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1526666.6666666663</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>314.81481481481507</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -530,18 +530,18 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>741.04938271604942</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>2282222.2222222225</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-209.8765432098767</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -550,18 +550,18 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>A6+C7</f>
-        <v>1250</v>
+        <v>880.96707818930031</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1778518.5185185187</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>139.91769547325094</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -570,18 +570,18 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>787.68861454046635</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>2114320.9876543209</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-93.278463648833949</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <f>(($F$10*$F$2)/60)*1000</f>
@@ -591,18 +591,18 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
-        <v>1250</v>
+        <v>849.87425697302251</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1890452.6748971192</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>62.185642432556122</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
@@ -611,18 +611,18 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>808.41716201798499</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>2039698.216735254</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-41.457094955037526</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -631,18 +631,18 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
-        <v>1250</v>
+        <v>836.05522532134341</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1940201.1888431639</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>27.638063303358408</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
@@ -651,18 +651,18 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>817.62984978577094</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>2006532.5407712243</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-18.425375535572432</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <f>$F$4*$F$6</f>
@@ -672,18 +672,18 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>1250</v>
+        <v>829.9134334761527</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1962311.6394858502</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>12.283583690381784</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
         <v>5</v>
@@ -692,18 +692,18 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>821.72437768256486</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1991792.2403427665</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-8.1890557935878565</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <f>$F$8*400</f>
@@ -712,3504 +712,3504 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ref="A4:A67" si="3">A14+(($F$12+$F$14-B15)*E15)/($F$2*1000)</f>
-        <v>1250</v>
+        <f t="shared" ref="A15:A67" si="3">A14+(($F$12+$F$14-B15)*E15)/($F$2*1000)</f>
+        <v>827.18374821162342</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1972138.5064381557</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>5.4593705290585701</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>823.5441678589176</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1985240.9957078963</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-3.6395803527057677</v>
       </c>
       <c r="E16">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.9705547607216</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1976506.0028614022</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>2.4263869018040065</v>
       </c>
       <c r="E17">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.35296349285227</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1982329.3314257318</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-1.6175912678692839</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.43135767143178</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1978447.1123828455</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1.0783941785795226</v>
       </c>
       <c r="E19">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.71242821904548</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1981035.2584114363</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-0.71892945238634842</v>
       </c>
       <c r="E20">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.19171452063631</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979309.8277257092</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>0.47928630159084507</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.87219031957579</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980460.1148495271</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-0.31952420106050944</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.08520645361614</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979693.2567669819</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>0.21301613404033964</v>
       </c>
       <c r="E23">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.9431956975892</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980204.4954886788</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-0.14201075602694699</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.03786953494057</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979863.669674214</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>9.467383735140579E-2</v>
       </c>
       <c r="E25">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.97475364337288</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980090.8868838574</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-6.3115891567657748E-2</v>
       </c>
       <c r="E26">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.01683090441804</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979939.4087440949</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>4.2077261045212963E-2</v>
       </c>
       <c r="E27">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.98877939705471</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980040.3941706032</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-2.8051507363367516E-2</v>
       </c>
       <c r="E28">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00748040196345</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979973.0705529314</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1.8701004908749989E-2</v>
       </c>
       <c r="E29">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99501306535774</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980017.9529647122</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-1.2467336605671639E-2</v>
       </c>
       <c r="E30">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00332462309484</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979988.0313568586</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>8.3115577371144257E-3</v>
       </c>
       <c r="E31">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99778358460344</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980007.9790954276</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-5.5410384913557207E-3</v>
       </c>
       <c r="E32">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00147761026437</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979994.6806030483</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>3.694025660903814E-3</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99901492649042</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980003.5462646345</v>
       </c>
       <c r="C34">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-2.4626837739358761E-3</v>
       </c>
       <c r="E34">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00065671567313</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979997.6358235769</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1.6417891826778132E-3</v>
       </c>
       <c r="E35">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99956218955128</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980001.5761176154</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-1.0945261218391047E-3</v>
       </c>
       <c r="E36">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00029187363248</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979998.949254923</v>
       </c>
       <c r="C37">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>7.296840812260699E-4</v>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99980541757827</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.7004967181</v>
       </c>
       <c r="C38">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-4.8645605420460925E-4</v>
       </c>
       <c r="E38">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00012972161437</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.533002188</v>
       </c>
       <c r="C39">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>3.2430403613640618E-4</v>
       </c>
       <c r="E39">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99991351892379</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.3113318745</v>
       </c>
       <c r="C40">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-2.1620269059591617E-4</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00005765405081</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.792445417</v>
       </c>
       <c r="C41">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1.441351270639441E-4</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99996156396617</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.1383697218</v>
       </c>
       <c r="C42">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-9.6090084601504103E-5</v>
       </c>
       <c r="E42">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00002562402256</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9077535188</v>
       </c>
       <c r="C43">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>6.4060056401002744E-5</v>
       </c>
       <c r="E43">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99998291731833</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0614976541</v>
       </c>
       <c r="C44">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-4.2706704213439177E-5</v>
       </c>
       <c r="E44">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00001138845448</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.959001564</v>
       </c>
       <c r="C45">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>2.8471136142292785E-5</v>
       </c>
       <c r="E45">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999240769705</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0273322908</v>
       </c>
       <c r="C46">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-1.8980757482091172E-5</v>
       </c>
       <c r="E46">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000506153526</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9817784729</v>
       </c>
       <c r="C47">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1.2653838267498132E-5</v>
       </c>
       <c r="E47">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999662564323</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0121476846</v>
       </c>
       <c r="C48">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-8.4358920705401243E-6</v>
       </c>
       <c r="E48">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000224957125</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9919015437</v>
       </c>
       <c r="C49">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>5.6239279931307665E-6</v>
       </c>
       <c r="E49">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999850028587</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.005398971</v>
       </c>
       <c r="C50">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-3.7492854365458089E-6</v>
       </c>
       <c r="E50">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000099980946</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.996400686</v>
       </c>
       <c r="C51">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>2.4995236243638727E-6</v>
       </c>
       <c r="E51">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999933346044</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0023995426</v>
       </c>
       <c r="C52">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-1.6663490290132661E-6</v>
       </c>
       <c r="E52">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000044435978</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9984003049</v>
       </c>
       <c r="C53">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1.1108993526755107E-6</v>
       </c>
       <c r="E53">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999970376007</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0010664635</v>
       </c>
       <c r="C54">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-7.4059967624230515E-7</v>
       </c>
       <c r="E54">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000019749325</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9992890242</v>
       </c>
       <c r="C55">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>4.9373322528683475E-7</v>
       </c>
       <c r="E55">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.9999998683378</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0004739838</v>
       </c>
       <c r="C56">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-3.2915542962857421E-7</v>
       </c>
       <c r="E56">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000008777488</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9996840106</v>
       </c>
       <c r="C57">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>2.1943706087768078E-7</v>
       </c>
       <c r="E57">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999994148334</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0002106598</v>
       </c>
       <c r="C58">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-1.4629153560640084E-7</v>
       </c>
       <c r="E58">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000003901107</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.99985956</v>
       </c>
       <c r="C59">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>9.7527744300249552E-8</v>
       </c>
       <c r="E59">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999997399266</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0000936266</v>
       </c>
       <c r="C60">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-6.5018442304184046E-8</v>
       </c>
       <c r="E60">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000001733827</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9999375823</v>
       </c>
       <c r="C61">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>4.3345628202789359E-8</v>
       </c>
       <c r="E61">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999998844123</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0000416117</v>
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-2.8897031572543911E-8</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000000770592</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9999722589</v>
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>1.9264633819046948E-8</v>
       </c>
       <c r="E63">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999999486272</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0000184942</v>
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-1.284319700466262E-8</v>
       </c>
       <c r="E64">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000000342493</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9999876705</v>
       </c>
       <c r="C65">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>8.5621852324240741E-9</v>
       </c>
       <c r="E65">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>824.99999999771671</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>3000000</v>
+        <v>1980000.0000082199</v>
       </c>
       <c r="C66">
         <f t="shared" si="1"/>
-        <v>-850</v>
+        <v>-5.7082312802473702E-9</v>
       </c>
       <c r="E66">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="3"/>
-        <v>1250</v>
+        <v>825.00000000152215</v>
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>960000</v>
+        <v>1979999.9999945201</v>
       </c>
       <c r="C67">
         <f t="shared" si="1"/>
-        <v>850</v>
+        <v>3.8054875201649137E-9</v>
       </c>
       <c r="E67">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="4">A67+(($F$12+$F$14-B68)*E68)/($F$2*1000)</f>
-        <v>400</v>
+        <v>824.99999999898523</v>
       </c>
       <c r="B68">
         <f t="shared" ref="B68:B131" si="5">($F$8*A67)</f>
-        <v>3000000</v>
+        <v>1980000.0000036531</v>
       </c>
       <c r="C68">
         <f t="shared" ref="C68:C131" si="6">(($F$12+$F$14-B68)*E68)/($F$2*1000)</f>
-        <v>-850</v>
+        <v>-2.536883888145288E-9</v>
       </c>
       <c r="E68">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000067644</v>
       </c>
       <c r="B69">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999975646</v>
       </c>
       <c r="C69">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>1.691255925430192E-9</v>
       </c>
       <c r="E69">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.999999999549</v>
       </c>
       <c r="B70">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000016235</v>
       </c>
       <c r="C70">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-1.1274500543044673E-9</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.0000000003007</v>
       </c>
       <c r="B71">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999989176</v>
       </c>
       <c r="C71">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>7.5168726551863887E-10</v>
       </c>
       <c r="E71">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999979946</v>
       </c>
       <c r="B72">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000007218</v>
       </c>
       <c r="C72">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-5.0123263564374709E-10</v>
       </c>
       <c r="E72">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.0000000001337</v>
       </c>
       <c r="B73">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999995187</v>
       </c>
       <c r="C73">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>3.3420898641149201E-10</v>
       </c>
       <c r="E73">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999991087</v>
       </c>
       <c r="B74">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000003208</v>
       </c>
       <c r="C74">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-2.228059909409947E-10</v>
       </c>
       <c r="E74">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000005946</v>
       </c>
       <c r="B75">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.999999786</v>
       </c>
       <c r="C75">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>1.4859122327632373E-10</v>
       </c>
       <c r="E75">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999996032</v>
       </c>
       <c r="B76">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000001427</v>
       </c>
       <c r="C76">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-9.9114711499876443E-11</v>
       </c>
       <c r="E76">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000002649</v>
       </c>
       <c r="B77">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999048</v>
       </c>
       <c r="C77">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.6130370315578246E-11</v>
       </c>
       <c r="E77">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999998238</v>
       </c>
       <c r="B78">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000636</v>
       </c>
       <c r="C78">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-4.4140809526046115E-11</v>
       </c>
       <c r="E78">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000001182</v>
       </c>
       <c r="B79">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999576</v>
       </c>
       <c r="C79">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>2.942720635069741E-11</v>
       </c>
       <c r="E79">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999204</v>
       </c>
       <c r="B80">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000284</v>
       </c>
       <c r="C80">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-1.9725929531786178E-11</v>
       </c>
       <c r="E80">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000534</v>
       </c>
       <c r="B81">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999809</v>
       </c>
       <c r="C81">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>1.325841165251202E-11</v>
       </c>
       <c r="E81">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999648</v>
       </c>
       <c r="B82">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000128</v>
       </c>
       <c r="C82">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-8.8928370840019657E-12</v>
       </c>
       <c r="E82">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000227</v>
       </c>
       <c r="B83">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999916</v>
       </c>
       <c r="C83">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>5.820766091346741E-12</v>
       </c>
       <c r="E83">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999852</v>
       </c>
       <c r="B84">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000054</v>
       </c>
       <c r="C84">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-3.7188227805826396E-12</v>
       </c>
       <c r="E84">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000091</v>
       </c>
       <c r="B85">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999965</v>
       </c>
       <c r="C85">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>2.4253192047278085E-12</v>
       </c>
       <c r="E85">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999943</v>
       </c>
       <c r="B86">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000021</v>
       </c>
       <c r="C86">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-1.4551915228366853E-12</v>
       </c>
       <c r="E86">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000045</v>
       </c>
       <c r="B87">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999986</v>
       </c>
       <c r="C87">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>9.7012768189112344E-13</v>
       </c>
       <c r="E87">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B88">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000012</v>
       </c>
       <c r="C88">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-8.084397349092695E-13</v>
       </c>
       <c r="E88">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B89">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C89">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E89">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B90">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C90">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E90">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B91">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C91">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E91">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B92">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C92">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E92">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B93">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C93">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E93">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B94">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C94">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E94">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B95">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C95">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E95">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B96">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C96">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E96">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B97">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C97">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E97">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B98">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C98">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E98">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B99">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C99">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E99">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B100">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C100">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E100">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B101">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C101">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E101">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B102">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C102">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E102">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B103">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C103">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E103">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B104">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C104">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E104">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B105">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C105">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E105">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B106">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C106">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E106">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B107">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C107">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E107">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B108">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C108">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E108">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B109">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C109">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E109">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B110">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C110">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E110">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B111">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C111">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E111">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B112">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C112">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E112">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B113">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C113">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E113">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B114">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C114">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E114">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B115">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C115">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E115">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B116">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C116">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E116">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B117">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C117">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E117">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B118">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C118">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E118">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B119">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C119">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E119">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B120">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C120">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E120">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B121">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C121">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E121">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B122">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C122">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E122">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B123">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C123">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E123">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B124">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C124">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E124">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B125">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C125">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E125">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B126">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C126">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E126">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B127">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C127">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E127">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B128">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C128">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E128">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B129">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C129">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E129">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="4"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B130">
         <f t="shared" si="5"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C130">
         <f t="shared" si="6"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E130">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="4"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B131">
         <f t="shared" si="5"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C131">
         <f t="shared" si="6"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E131">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="7">A131+(($F$12+$F$14-B132)*E132)/($F$2*1000)</f>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B132">
         <f t="shared" ref="B132:B171" si="8">($F$8*A131)</f>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C132">
         <f t="shared" ref="C132:C195" si="9">(($F$12+$F$14-B132)*E132)/($F$2*1000)</f>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E132">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="7"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B133">
         <f t="shared" si="8"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C133">
         <f t="shared" si="9"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E133">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="7"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B134">
         <f t="shared" si="8"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C134">
         <f t="shared" si="9"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E134">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="7"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B135">
         <f t="shared" si="8"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C135">
         <f t="shared" si="9"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E135">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="7"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B136">
         <f t="shared" si="8"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C136">
         <f t="shared" si="9"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E136">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="7"/>
-        <v>1250</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B137">
         <f t="shared" si="8"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C137">
         <f t="shared" si="9"/>
-        <v>850</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E137">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="7"/>
-        <v>400</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B138">
         <f t="shared" si="8"/>
-        <v>3000000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C138">
         <f t="shared" si="9"/>
-        <v>-850</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E138">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B139">
         <f t="shared" si="8"/>
-        <v>960000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C139">
         <f t="shared" si="9"/>
-        <v>425</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E139">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B140">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C140">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E140">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B141">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C141">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E141">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B142">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C142">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E142">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B143">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C143">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E143">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B144">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C144">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E144">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B145">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C145">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E145">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B146">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C146">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E146">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B147">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C147">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E147">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B148">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C148">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E148">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B149">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C149">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E149">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B150">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C150">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E150">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B151">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C151">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E151">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B152">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C152">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E152">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B153">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C153">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E153">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B154">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C154">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E154">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B155">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C155">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E155">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B156">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C156">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E156">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B157">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C157">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E157">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B158">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C158">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E158">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B159">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C159">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E159">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B160">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C160">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E160">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B161">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C161">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E161">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B162">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C162">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E162">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B163">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C163">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E163">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B164">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C164">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E164">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B165">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C165">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E165">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B166">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C166">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E166">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B167">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C167">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E167">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B168">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C168">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E168">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B169">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C169">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E169">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B170">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C170">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E170">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B171">
         <f t="shared" si="8"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C171">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E171">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B172">
-        <f t="shared" ref="B132:B195" si="10">($F$8*A171)</f>
-        <v>1980000</v>
+        <f t="shared" ref="B172:B195" si="10">($F$8*A171)</f>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C172">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E172">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B173">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C173">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E173">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B174">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C174">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E174">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B175">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C175">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E175">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B176">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C176">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E176">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B177">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C177">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E177">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B178">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C178">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E178">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B179">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C179">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E179">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B180">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C180">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E180">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B181">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C181">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E181">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B182">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C182">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E182">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B183">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C183">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E183">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B184">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C184">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E184">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B185">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C185">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E185">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B186">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C186">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E186">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B187">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C187">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E187">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B188">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C188">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E188">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B189">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C189">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E189">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B190">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C190">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E190">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B191">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C191">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E191">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B192">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C192">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E192">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B193">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C193">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E193">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B194">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C194">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E194">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="7"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B195">
         <f t="shared" si="10"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C195">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E195">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A220" si="11">A195+(($F$12+$F$14-B196)*E196)/($F$2*1000)</f>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B196">
         <f t="shared" ref="B196:B220" si="12">($F$8*A195)</f>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C196">
         <f t="shared" ref="C196:C222" si="13">(($F$12+$F$14-B196)*E196)/($F$2*1000)</f>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E196">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B197">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C197">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E197">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B198">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C198">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E198">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B199">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C199">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E199">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B200">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C200">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E200">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B201">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C201">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E201">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B202">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C202">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E202">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B203">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C203">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E203">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B204">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C204">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E204">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B205">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C205">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E205">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B206">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C206">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E206">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B207">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C207">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E207">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B208">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C208">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E208">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B209">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C209">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E209">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B210">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C210">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E210">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B211">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C211">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E211">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B212">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C212">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E212">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B213">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C213">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E213">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B214">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C214">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E214">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B215">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C215">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E215">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B216">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C216">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E216">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B217">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C217">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E217">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B218">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C218">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E218">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>825.00000000000034</v>
       </c>
       <c r="B219">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1979999.9999999991</v>
       </c>
       <c r="C219">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>6.4675178792741566E-13</v>
       </c>
       <c r="E219">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="11"/>
-        <v>825</v>
+        <v>824.99999999999966</v>
       </c>
       <c r="B220">
         <f t="shared" si="12"/>
-        <v>1980000</v>
+        <v>1980000.0000000009</v>
       </c>
       <c r="C220">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-6.4675178792741566E-13</v>
       </c>
       <c r="E220">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/CO2ConcentrationEquation.xlsx
+++ b/data/CO2ConcentrationEquation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cadmium-Simulation-Environment\DEVS-Models\CovidSim\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B9F245-D808-4DFF-A2EE-294FACD967B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7D64B-8E01-477C-AB70-4B2214A4521D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{29C7A327-B808-4D9D-A094-6977DD1551C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>NumbOfPeople</t>
   </si>
@@ -67,6 +68,39 @@
   </si>
   <si>
     <t>CO2OutPerMin(mg/min)</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student3</t>
+  </si>
+  <si>
+    <t>Student4</t>
+  </si>
+  <si>
+    <t>isSick</t>
+  </si>
+  <si>
+    <t>Vaccinated</t>
+  </si>
+  <si>
+    <t>WearsMask</t>
+  </si>
+  <si>
+    <t>socialDistances</t>
+  </si>
+  <si>
+    <t>ProbabilityRank</t>
+  </si>
+  <si>
+    <t>ProbabilityOfInfection</t>
+  </si>
+  <si>
+    <t>CO2PeoplePerMin(mg/min) 0 People</t>
   </si>
 </sst>
 </file>
@@ -418,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7165ACF-C1F5-4B27-8066-2CEDFD77D109}">
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,10 +466,10 @@
     <col min="4" max="4" width="21.140625" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -452,7 +486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>400</v>
       </c>
@@ -467,10 +501,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+C3</f>
-        <v>1108.3333333333335</v>
+        <v>1344.4444444444443</v>
       </c>
       <c r="B3">
         <f>($F$8*A2)</f>
@@ -478,7 +512,7 @@
       </c>
       <c r="C3">
         <f>(($F$12+$F$14-B3)*E3)/($F$2*1000)</f>
-        <v>708.33333333333337</v>
+        <v>944.44444444444446</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -487,18 +521,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+C4</f>
-        <v>636.11111111111097</v>
+        <v>714.81481481481478</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B67" si="0">($F$8*A3)</f>
-        <v>2660000.0000000005</v>
+        <v>3226666.6666666665</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C67" si="1">(($F$12+$F$14-B4)*E4)/($F$2*1000)</f>
-        <v>-472.22222222222251</v>
+        <v>-629.62962962962956</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -507,18 +541,18 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A14" si="2">A4+C5</f>
-        <v>950.92592592592609</v>
+        <f t="shared" ref="A5:A68" si="2">A4+C5</f>
+        <v>1134.5679012345679</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>1526666.6666666663</v>
+        <v>1715555.5555555555</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>314.81481481481507</v>
+        <v>419.75308641975312</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -527,38 +561,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="2"/>
-        <v>741.04938271604942</v>
+        <v>854.73251028806567</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>2282222.2222222225</v>
+        <v>2722962.9629629632</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>-209.8765432098767</v>
+        <v>-279.83539094650217</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6+C7</f>
-        <v>880.96707818930031</v>
+        <f t="shared" si="2"/>
+        <v>1041.289437585734</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1778518.5185185187</v>
+        <v>2051358.0246913575</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>139.91769547325094</v>
+        <v>186.55692729766841</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -567,18 +601,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="2"/>
-        <v>787.68861454046635</v>
+        <v>916.91815272062183</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>2114320.9876543209</v>
+        <v>2499094.6502057617</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>-93.278463648833949</v>
+        <v>-124.37128486511224</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -588,18 +622,18 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="2"/>
-        <v>849.87425697302251</v>
+        <v>999.83234263069653</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1890452.6748971192</v>
+        <v>2200603.5665294924</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>62.185642432556122</v>
+        <v>82.914189910074739</v>
       </c>
       <c r="E9">
         <v>50</v>
@@ -608,18 +642,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="2"/>
-        <v>808.41716201798499</v>
+        <v>944.55621602398003</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>2039698.216735254</v>
+        <v>2399597.6223136717</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>-41.457094955037526</v>
+        <v>-55.276126606716488</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -628,18 +662,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="2"/>
-        <v>836.05522532134341</v>
+        <v>981.40696709512463</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1940201.1888431639</v>
+        <v>2266934.9184575519</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>27.638063303358408</v>
+        <v>36.850751071144543</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -647,40 +681,46 @@
       <c r="F11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
-        <v>817.62984978577094</v>
+        <v>956.83979971436133</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>2006532.5407712243</v>
+        <v>2355376.7210282991</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>-18.425375535572432</v>
+        <v>-24.567167380763244</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
       <c r="F12">
         <f>$F$4*$F$6</f>
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1360000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>829.9134334761527</v>
+        <v>973.21791130153701</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1962311.6394858502</v>
+        <v>2296415.519314467</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>12.283583690381784</v>
+        <v>16.378111587175713</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -689,18 +729,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>821.72437768256486</v>
+        <v>962.29917024341989</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1991792.2403427665</v>
+        <v>2335722.9871236887</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>-8.1890557935878565</v>
+        <v>-10.91874105811714</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -710,35 +750,35 @@
         <v>960000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ref="A15:A67" si="3">A14+(($F$12+$F$14-B15)*E15)/($F$2*1000)</f>
-        <v>827.18374821162342</v>
+        <f t="shared" si="2"/>
+        <v>969.57833094883108</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1972138.5064381557</v>
+        <v>2309518.0085842079</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>5.4593705290585701</v>
+        <v>7.2791607054112113</v>
       </c>
       <c r="E15">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="3"/>
-        <v>823.5441678589176</v>
+        <f t="shared" si="2"/>
+        <v>964.72555714522366</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1985240.9957078963</v>
+        <v>2326987.9942771946</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>-3.6395803527057677</v>
+        <v>-4.8527738036073664</v>
       </c>
       <c r="E16">
         <v>50</v>
@@ -746,16 +786,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="3"/>
-        <v>825.9705547607216</v>
+        <f t="shared" si="2"/>
+        <v>967.96073968096186</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1976506.0028614022</v>
+        <v>2315341.3371485369</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>2.4263869018040065</v>
+        <v>3.2351825357382444</v>
       </c>
       <c r="E17">
         <v>50</v>
@@ -763,16 +803,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="3"/>
-        <v>824.35296349285227</v>
+        <f t="shared" si="2"/>
+        <v>965.80395132380318</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1982329.3314257318</v>
+        <v>2323105.7752343086</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>-1.6175912678692839</v>
+        <v>-2.1567883571587219</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -780,16 +820,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="3"/>
-        <v>825.43135767143178</v>
+        <f t="shared" si="2"/>
+        <v>967.24181022857556</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1978447.1123828455</v>
+        <v>2317929.4831771278</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>1.0783941785795226</v>
+        <v>1.4378589047723733</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -797,16 +837,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="3"/>
-        <v>824.71242821904548</v>
+        <f t="shared" si="2"/>
+        <v>966.28323762539424</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1981035.2584114363</v>
+        <v>2321380.3445485812</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>-0.71892945238634842</v>
+        <v>-0.95857260318136672</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -814,16 +854,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="3"/>
-        <v>825.19171452063631</v>
+        <f t="shared" si="2"/>
+        <v>966.92228602751493</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1979309.8277257092</v>
+        <v>2319079.7703009462</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>0.47928630159084507</v>
+        <v>0.63904840212069558</v>
       </c>
       <c r="E21">
         <v>50</v>
@@ -831,16 +871,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="3"/>
-        <v>824.87219031957579</v>
+        <f t="shared" si="2"/>
+        <v>22.05180931499001</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1980460.1148495271</v>
+        <v>2320613.4864660357</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
-        <v>-0.31952420106050944</v>
+        <f>(($G$12+$F$14-B22)*E22)/($F$2*1000)</f>
+        <v>-944.87047671252492</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -848,16 +888,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="3"/>
-        <v>825.08520645361614</v>
+        <f t="shared" si="2"/>
+        <v>651.96546045667333</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>1979693.2567669819</v>
+        <v>52924.342355976027</v>
       </c>
       <c r="C23">
-        <f t="shared" si="1"/>
-        <v>0.21301613404033964</v>
+        <f t="shared" ref="C23:C86" si="3">(($G$12+$F$14-B23)*E23)/($F$2*1000)</f>
+        <v>629.91365114168332</v>
       </c>
       <c r="E23">
         <v>50</v>
@@ -865,16 +905,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="3"/>
-        <v>824.9431956975892</v>
+        <f t="shared" si="2"/>
+        <v>232.02302636221771</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1980204.4954886788</v>
+        <v>1564717.1050960161</v>
       </c>
       <c r="C24">
-        <f t="shared" si="1"/>
-        <v>-0.14201075602694699</v>
+        <f t="shared" si="3"/>
+        <v>-419.94243409445562</v>
       </c>
       <c r="E24">
         <v>50</v>
@@ -882,16 +922,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="3"/>
-        <v>825.03786953494057</v>
+        <f t="shared" si="2"/>
+        <v>511.98464909185492</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1979863.669674214</v>
+        <v>556855.26326932246</v>
       </c>
       <c r="C25">
-        <f t="shared" si="1"/>
-        <v>9.467383735140579E-2</v>
+        <f t="shared" si="3"/>
+        <v>279.96162272963721</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -899,16 +939,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="3"/>
-        <v>824.97475364337288</v>
+        <f t="shared" si="2"/>
+        <v>325.34356727209672</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1980090.8868838574</v>
+        <v>1228763.1578204518</v>
       </c>
       <c r="C26">
-        <f t="shared" si="1"/>
-        <v>-6.3115891567657748E-2</v>
+        <f t="shared" si="3"/>
+        <v>-186.64108181975817</v>
       </c>
       <c r="E26">
         <v>50</v>
@@ -916,16 +956,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="3"/>
-        <v>825.01683090441804</v>
+        <f t="shared" si="2"/>
+        <v>449.77095515193554</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>1979939.4087440949</v>
+        <v>780824.56145303207</v>
       </c>
       <c r="C27">
-        <f t="shared" si="1"/>
-        <v>4.2077261045212963E-2</v>
+        <f t="shared" si="3"/>
+        <v>124.42738787983883</v>
       </c>
       <c r="E27">
         <v>50</v>
@@ -933,16 +973,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="3"/>
-        <v>824.98877939705471</v>
+        <f t="shared" si="2"/>
+        <v>366.81936323204297</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1980040.3941706032</v>
+        <v>1079450.2923646453</v>
       </c>
       <c r="C28">
-        <f t="shared" si="1"/>
-        <v>-2.8051507363367516E-2</v>
+        <f t="shared" si="3"/>
+        <v>-82.951591919892564</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -950,16 +990,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="3"/>
-        <v>825.00748040196345</v>
+        <f t="shared" si="2"/>
+        <v>422.12042451197135</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1979973.0705529314</v>
+        <v>880366.47175690311</v>
       </c>
       <c r="C29">
-        <f t="shared" si="1"/>
-        <v>1.8701004908749989E-2</v>
+        <f t="shared" si="3"/>
+        <v>55.301061279928405</v>
       </c>
       <c r="E29">
         <v>50</v>
@@ -967,16 +1007,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="3"/>
-        <v>824.99501306535774</v>
+        <f t="shared" si="2"/>
+        <v>385.25305032535243</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1980017.9529647122</v>
+        <v>1013089.0188287313</v>
       </c>
       <c r="C30">
-        <f t="shared" si="1"/>
-        <v>-1.2467336605671639E-2</v>
+        <f t="shared" si="3"/>
+        <v>-36.867374186618932</v>
       </c>
       <c r="E30">
         <v>50</v>
@@ -984,16 +1024,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="3"/>
-        <v>825.00332462309484</v>
+        <f t="shared" si="2"/>
+        <v>409.83129978309842</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1979988.0313568586</v>
+        <v>924607.32078084582</v>
       </c>
       <c r="C31">
-        <f t="shared" si="1"/>
-        <v>8.3115577371144257E-3</v>
+        <f t="shared" si="3"/>
+        <v>24.578249457745954</v>
       </c>
       <c r="E31">
         <v>50</v>
@@ -1001,16 +1041,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="3"/>
-        <v>824.99778358460344</v>
+        <f t="shared" si="2"/>
+        <v>393.44580014460104</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1980007.9790954276</v>
+        <v>983595.11947943619</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
-        <v>-5.5410384913557207E-3</v>
+        <f t="shared" si="3"/>
+        <v>-16.385499638497357</v>
       </c>
       <c r="E32">
         <v>50</v>
@@ -1018,16 +1058,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="3"/>
-        <v>825.00147761026437</v>
+        <f t="shared" si="2"/>
+        <v>404.36946657026596</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1979994.6806030483</v>
+        <v>944269.9203470425</v>
       </c>
       <c r="C33">
-        <f t="shared" si="1"/>
-        <v>3.694025660903814E-3</v>
+        <f t="shared" si="3"/>
+        <v>10.923666425664932</v>
       </c>
       <c r="E33">
         <v>50</v>
@@ -1035,16 +1075,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="3"/>
-        <v>824.99901492649042</v>
+        <f t="shared" si="2"/>
+        <v>397.0870222864894</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1980003.5462646345</v>
+        <v>970486.71976863826</v>
       </c>
       <c r="C34">
-        <f t="shared" si="1"/>
-        <v>-2.4626837739358761E-3</v>
+        <f t="shared" si="3"/>
+        <v>-7.2824442837765675</v>
       </c>
       <c r="E34">
         <v>50</v>
@@ -1052,16 +1092,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="3"/>
-        <v>825.00065671567313</v>
+        <f t="shared" si="2"/>
+        <v>401.94198514234034</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1979997.6358235769</v>
+        <v>953008.85348757461</v>
       </c>
       <c r="C35">
-        <f t="shared" si="1"/>
-        <v>1.6417891826778132E-3</v>
+        <f t="shared" si="3"/>
+        <v>4.8549628558509639</v>
       </c>
       <c r="E35">
         <v>50</v>
@@ -1069,16 +1109,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="3"/>
-        <v>824.99956218955128</v>
+        <f t="shared" si="2"/>
+        <v>398.70534323843981</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1980001.5761176154</v>
+        <v>964660.76434161677</v>
       </c>
       <c r="C36">
-        <f t="shared" si="1"/>
-        <v>-1.0945261218391047E-3</v>
+        <f t="shared" si="3"/>
+        <v>-3.236641903900535</v>
       </c>
       <c r="E36">
         <v>50</v>
@@ -1086,16 +1126,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="3"/>
-        <v>825.00029187363248</v>
+        <f t="shared" si="2"/>
+        <v>400.86310450770679</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1979998.949254923</v>
+        <v>956892.82377225556</v>
       </c>
       <c r="C37">
-        <f t="shared" si="1"/>
-        <v>7.296840812260699E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.1577612692669694</v>
       </c>
       <c r="E37">
         <v>50</v>
@@ -1103,16 +1143,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="3"/>
-        <v>824.99980541757827</v>
+        <f t="shared" si="2"/>
+        <v>399.42459699486216</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>1980000.7004967181</v>
+        <v>962071.45081849629</v>
       </c>
       <c r="C38">
-        <f t="shared" si="1"/>
-        <v>-4.8645605420460925E-4</v>
+        <f t="shared" si="3"/>
+        <v>-1.4385075128446463</v>
       </c>
       <c r="E38">
         <v>50</v>
@@ -1120,16 +1160,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="3"/>
-        <v>825.00012972161437</v>
+        <f t="shared" si="2"/>
+        <v>400.38360200342521</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1979999.533002188</v>
+        <v>958619.03278766922</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
-        <v>3.2430403613640618E-4</v>
+        <f t="shared" si="3"/>
+        <v>0.9590050085630436</v>
       </c>
       <c r="E39">
         <v>50</v>
@@ -1137,16 +1177,16 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="3"/>
-        <v>824.99991351892379</v>
+        <f t="shared" si="2"/>
+        <v>399.7442653310498</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1980000.3113318745</v>
+        <v>960920.64480822056</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
-        <v>-2.1620269059591617E-4</v>
+        <f t="shared" si="3"/>
+        <v>-0.63933667237538938</v>
       </c>
       <c r="E40">
         <v>50</v>
@@ -1154,16 +1194,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="3"/>
-        <v>825.00005765405081</v>
+        <f t="shared" si="2"/>
+        <v>400.17048977930017</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>1979999.792445417</v>
+        <v>959386.23679451947</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
-        <v>1.441351270639441E-4</v>
+        <f t="shared" si="3"/>
+        <v>0.42622444825036737</v>
       </c>
       <c r="E41">
         <v>50</v>
@@ -1171,16 +1211,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="3"/>
-        <v>824.99996156396617</v>
+        <f t="shared" si="2"/>
+        <v>399.88634014713324</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>1980000.1383697218</v>
+        <v>960409.17547032039</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
-        <v>-9.6090084601504103E-5</v>
+        <f t="shared" si="3"/>
+        <v>-0.2841496321669385</v>
       </c>
       <c r="E42">
         <v>50</v>
@@ -1188,16 +1228,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="3"/>
-        <v>825.00002562402256</v>
+        <f t="shared" si="2"/>
+        <v>400.07577323524447</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>1979999.9077535188</v>
+        <v>959727.21635311982</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
-        <v>6.4060056401002744E-5</v>
+        <f t="shared" si="3"/>
+        <v>0.18943308811123846</v>
       </c>
       <c r="E43">
         <v>50</v>
@@ -1205,16 +1245,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="3"/>
-        <v>824.99998291731833</v>
+        <f t="shared" si="2"/>
+        <v>399.94948450983702</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>1980000.0614976541</v>
+        <v>960181.85576458671</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
-        <v>-4.2706704213439177E-5</v>
+        <f t="shared" si="3"/>
+        <v>-0.12628872540743841</v>
       </c>
       <c r="E44">
         <v>50</v>
@@ -1222,16 +1262,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="3"/>
-        <v>825.00001138845448</v>
+        <f t="shared" si="2"/>
+        <v>400.03367699344199</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>1979999.959001564</v>
+        <v>959878.76282360882</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
-        <v>2.8471136142292785E-5</v>
+        <f t="shared" si="3"/>
+        <v>8.4192483604985879E-2</v>
       </c>
       <c r="E45">
         <v>50</v>
@@ -1239,16 +1279,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="3"/>
-        <v>824.99999240769705</v>
+        <f t="shared" si="2"/>
+        <v>399.97754867103873</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>1980000.0273322908</v>
+        <v>960080.82478426071</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
-        <v>-1.8980757482091172E-5</v>
+        <f t="shared" si="3"/>
+        <v>-5.612832240327003E-2</v>
       </c>
       <c r="E46">
         <v>50</v>
@@ -1256,16 +1296,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="3"/>
-        <v>825.00000506153526</v>
+        <f t="shared" si="2"/>
+        <v>400.01496755264088</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>1979999.9817784729</v>
+        <v>959946.11681049294</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
-        <v>1.2653838267498132E-5</v>
+        <f t="shared" si="3"/>
+        <v>3.7418881602126121E-2</v>
       </c>
       <c r="E47">
         <v>50</v>
@@ -1273,16 +1313,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="3"/>
-        <v>824.99999662564323</v>
+        <f t="shared" si="2"/>
+        <v>399.99002163157274</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>1980000.0121476846</v>
+        <v>960035.92212633812</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
-        <v>-8.4358920705401243E-6</v>
+        <f t="shared" si="3"/>
+        <v>-2.4945921068137977E-2</v>
       </c>
       <c r="E48">
         <v>50</v>
@@ -1290,16 +1330,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="3"/>
-        <v>825.00000224957125</v>
+        <f t="shared" si="2"/>
+        <v>400.00665224561817</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>1979999.9919015437</v>
+        <v>959976.05191577459</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
-        <v>5.6239279931307665E-6</v>
+        <f t="shared" si="3"/>
+        <v>1.6630614045425318E-2</v>
       </c>
       <c r="E49">
         <v>50</v>
@@ -1307,16 +1347,16 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="3"/>
-        <v>824.99999850028587</v>
+        <f t="shared" si="2"/>
+        <v>399.99556516958791</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>1980000.005398971</v>
+        <v>960015.96538948361</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
-        <v>-3.7492854365458089E-6</v>
+        <f t="shared" si="3"/>
+        <v>-1.1087076030283546E-2</v>
       </c>
       <c r="E50">
         <v>50</v>
@@ -1324,16 +1364,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="3"/>
-        <v>825.00000099980946</v>
+        <f t="shared" si="2"/>
+        <v>400.0029565536081</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>1979999.996400686</v>
+        <v>959989.35640701093</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
-        <v>2.4995236243638727E-6</v>
+        <f t="shared" si="3"/>
+        <v>7.3913840201890301E-3</v>
       </c>
       <c r="E51">
         <v>50</v>
@@ -1341,16 +1381,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="3"/>
-        <v>824.99999933346044</v>
+        <f t="shared" si="2"/>
+        <v>399.99802896426127</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>1980000.0023995426</v>
+        <v>960007.09572865942</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
-        <v>-1.6663490290132661E-6</v>
+        <f t="shared" si="3"/>
+        <v>-4.9275893468196351E-3</v>
       </c>
       <c r="E52">
         <v>50</v>
@@ -1358,16 +1398,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="3"/>
-        <v>825.00000044435978</v>
+        <f t="shared" si="2"/>
+        <v>400.00131402382578</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>1979999.9984003049</v>
+        <v>959995.26951422705</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
-        <v>1.1108993526755107E-6</v>
+        <f t="shared" si="3"/>
+        <v>3.2850595645464234E-3</v>
       </c>
       <c r="E53">
         <v>50</v>
@@ -1375,16 +1415,16 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="3"/>
-        <v>824.99999970376007</v>
+        <f t="shared" si="2"/>
+        <v>399.99912398411612</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>1980000.0010664635</v>
+        <v>960003.15365718189</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
-        <v>-7.4059967624230515E-7</v>
+        <f t="shared" si="3"/>
+        <v>-2.1900397096437196E-3</v>
       </c>
       <c r="E54">
         <v>50</v>
@@ -1392,16 +1432,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="3"/>
-        <v>825.00000019749325</v>
+        <f t="shared" si="2"/>
+        <v>400.00058401058925</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>1979999.9992890242</v>
+        <v>959997.89756187866</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
-        <v>4.9373322528683475E-7</v>
+        <f t="shared" si="3"/>
+        <v>1.460026473149709E-3</v>
       </c>
       <c r="E55">
         <v>50</v>
@@ -1409,16 +1449,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="3"/>
-        <v>824.9999998683378</v>
+        <f t="shared" si="2"/>
+        <v>399.99961065960719</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>1980000.0004739838</v>
+        <v>960001.40162541415</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
-        <v>-3.2915542962857421E-7</v>
+        <f t="shared" si="3"/>
+        <v>-9.7335098204590997E-4</v>
       </c>
       <c r="E56">
         <v>50</v>
@@ -1426,16 +1466,16 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="3"/>
-        <v>825.00000008777488</v>
+        <f t="shared" si="2"/>
+        <v>400.0002595602619</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>1979999.9996840106</v>
+        <v>959999.06558305724</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
-        <v>2.1943706087768078E-7</v>
+        <f t="shared" si="3"/>
+        <v>6.4890065469727339E-4</v>
       </c>
       <c r="E57">
         <v>50</v>
@@ -1443,16 +1483,16 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="3"/>
-        <v>824.99999994148334</v>
+        <f t="shared" si="2"/>
+        <v>399.99982695982538</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>1980000.0002106598</v>
+        <v>960000.62294462859</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
-        <v>-1.4629153560640084E-7</v>
+        <f t="shared" si="3"/>
+        <v>-4.3260043651874487E-4</v>
       </c>
       <c r="E58">
         <v>50</v>
@@ -1460,16 +1500,16 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="3"/>
-        <v>825.00000003901107</v>
+        <f t="shared" si="2"/>
+        <v>400.00011536011641</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>1979999.99985956</v>
+        <v>959999.58470358094</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
-        <v>9.7527744300249552E-8</v>
+        <f t="shared" si="3"/>
+        <v>2.8840029101249656E-4</v>
       </c>
       <c r="E59">
         <v>50</v>
@@ -1477,16 +1517,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="3"/>
-        <v>824.99999997399266</v>
+        <f t="shared" si="2"/>
+        <v>399.99992309325569</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>1980000.0000936266</v>
+        <v>960000.27686427941</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
-        <v>-6.5018442304184046E-8</v>
+        <f t="shared" si="3"/>
+        <v>-1.9226686070194572E-4</v>
       </c>
       <c r="E60">
         <v>50</v>
@@ -1494,16 +1534,16 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="3"/>
-        <v>825.00000001733827</v>
+        <f t="shared" si="2"/>
+        <v>400.00005127116287</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>1979999.9999375823</v>
+        <v>959999.81542381365</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
-        <v>4.3345628202789359E-8</v>
+        <f t="shared" si="3"/>
+        <v>1.2817790718852646E-4</v>
       </c>
       <c r="E61">
         <v>50</v>
@@ -1511,16 +1551,16 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="3"/>
-        <v>824.99999998844123</v>
+        <f t="shared" si="2"/>
+        <v>399.99996581922477</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>1980000.0000416117</v>
+        <v>960000.12305079086</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
-        <v>-2.8897031572543911E-8</v>
+        <f t="shared" si="3"/>
+        <v>-8.5451938098736311E-5</v>
       </c>
       <c r="E62">
         <v>50</v>
@@ -1528,16 +1568,16 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="3"/>
-        <v>825.00000000770592</v>
+        <f t="shared" si="2"/>
+        <v>400.00002278718347</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>1979999.9999722589</v>
+        <v>959999.9179661395</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
-        <v>1.9264633819046948E-8</v>
+        <f t="shared" si="3"/>
+        <v>5.6967958678594895E-5</v>
       </c>
       <c r="E63">
         <v>50</v>
@@ -1545,16 +1585,16 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="3"/>
-        <v>824.99999999486272</v>
+        <f t="shared" si="2"/>
+        <v>399.99998480854435</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>1980000.0000184942</v>
+        <v>960000.05468924029</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
-        <v>-1.284319700466262E-8</v>
+        <f t="shared" si="3"/>
+        <v>-3.7978639092115269E-5</v>
       </c>
       <c r="E64">
         <v>50</v>
@@ -1562,16 +1602,16 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="3"/>
-        <v>825.00000000342493</v>
+        <f t="shared" si="2"/>
+        <v>400.0000101276371</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>1979999.9999876705</v>
+        <v>959999.96354050643</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
-        <v>8.5621852324240741E-9</v>
+        <f t="shared" si="3"/>
+        <v>2.5319092755024838E-5</v>
       </c>
       <c r="E65">
         <v>50</v>
@@ -1579,16 +1619,16 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="3"/>
-        <v>824.99999999771671</v>
+        <f t="shared" si="2"/>
+        <v>399.99999324824188</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>1980000.0000082199</v>
+        <v>960000.02430632908</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
-        <v>-5.7082312802473702E-9</v>
+        <f t="shared" si="3"/>
+        <v>-1.6879395196964552E-5</v>
       </c>
       <c r="E66">
         <v>50</v>
@@ -1596,16 +1636,16 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="3"/>
-        <v>825.00000000152215</v>
+        <f t="shared" si="2"/>
+        <v>400.0000045011721</v>
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>1979999.9999945201</v>
+        <v>959999.98379578046</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
-        <v>3.8054875201649137E-9</v>
+        <f t="shared" si="3"/>
+        <v>1.1252930239101666E-5</v>
       </c>
       <c r="E67">
         <v>50</v>
@@ -1613,16 +1653,16 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A131" si="4">A67+(($F$12+$F$14-B68)*E68)/($F$2*1000)</f>
-        <v>824.99999999898523</v>
+        <f t="shared" si="2"/>
+        <v>399.99999699921864</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B131" si="5">($F$8*A67)</f>
-        <v>1980000.0000036531</v>
+        <f t="shared" ref="B68:B131" si="4">($F$8*A67)</f>
+        <v>960000.01080281299</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="6">(($F$12+$F$14-B68)*E68)/($F$2*1000)</f>
-        <v>-2.536883888145288E-9</v>
+        <f t="shared" si="3"/>
+        <v>-7.5019534657864519E-6</v>
       </c>
       <c r="E68">
         <v>50</v>
@@ -1630,16 +1670,16 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="4"/>
-        <v>825.00000000067644</v>
+        <f t="shared" ref="A69:A132" si="5">A68+C69</f>
+        <v>400.00000200052096</v>
       </c>
       <c r="B69">
-        <f t="shared" si="5"/>
-        <v>1979999.9999975646</v>
+        <f t="shared" si="4"/>
+        <v>959999.99279812467</v>
       </c>
       <c r="C69">
-        <f t="shared" si="6"/>
-        <v>1.691255925430192E-9</v>
+        <f t="shared" si="3"/>
+        <v>5.0013023105243015E-6</v>
       </c>
       <c r="E69">
         <v>50</v>
@@ -1647,16 +1687,16 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="4"/>
-        <v>824.999999999549</v>
+        <f t="shared" si="5"/>
+        <v>399.99999866631936</v>
       </c>
       <c r="B70">
-        <f t="shared" si="5"/>
-        <v>1980000.0000016235</v>
+        <f t="shared" si="4"/>
+        <v>960000.0048012503</v>
       </c>
       <c r="C70">
-        <f t="shared" si="6"/>
-        <v>-1.1274500543044673E-9</v>
+        <f t="shared" si="3"/>
+        <v>-3.3342015942455166E-6</v>
       </c>
       <c r="E70">
         <v>50</v>
@@ -1664,16 +1704,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="4"/>
-        <v>825.0000000003007</v>
+        <f t="shared" si="5"/>
+        <v>400.00000088912043</v>
       </c>
       <c r="B71">
-        <f t="shared" si="5"/>
-        <v>1979999.9999989176</v>
+        <f t="shared" si="4"/>
+        <v>959999.99679916643</v>
       </c>
       <c r="C71">
-        <f t="shared" si="6"/>
-        <v>7.5168726551863887E-10</v>
+        <f t="shared" si="3"/>
+        <v>2.2228010897783354E-6</v>
       </c>
       <c r="E71">
         <v>50</v>
@@ -1681,16 +1721,16 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="4"/>
-        <v>824.99999999979946</v>
+        <f t="shared" si="5"/>
+        <v>399.99999940725309</v>
       </c>
       <c r="B72">
-        <f t="shared" si="5"/>
-        <v>1980000.0000007218</v>
+        <f t="shared" si="4"/>
+        <v>960000.00213388901</v>
       </c>
       <c r="C72">
-        <f t="shared" si="6"/>
-        <v>-5.0123263564374709E-10</v>
+        <f t="shared" si="3"/>
+        <v>-1.4818673662375658E-6</v>
       </c>
       <c r="E72">
         <v>50</v>
@@ -1698,16 +1738,16 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="4"/>
-        <v>825.0000000001337</v>
+        <f t="shared" si="5"/>
+        <v>400.00000039516459</v>
       </c>
       <c r="B73">
-        <f t="shared" si="5"/>
-        <v>1979999.9999995187</v>
+        <f t="shared" si="4"/>
+        <v>959999.99857740744</v>
       </c>
       <c r="C73">
-        <f t="shared" si="6"/>
-        <v>3.3420898641149201E-10</v>
+        <f t="shared" si="3"/>
+        <v>9.879114966477372E-7</v>
       </c>
       <c r="E73">
         <v>50</v>
@@ -1715,16 +1755,16 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="4"/>
-        <v>824.99999999991087</v>
+        <f t="shared" si="5"/>
+        <v>399.99999973655696</v>
       </c>
       <c r="B74">
-        <f t="shared" si="5"/>
-        <v>1980000.0000003208</v>
+        <f t="shared" si="4"/>
+        <v>960000.000948395</v>
       </c>
       <c r="C74">
-        <f t="shared" si="6"/>
-        <v>-2.228059909409947E-10</v>
+        <f t="shared" si="3"/>
+        <v>-6.5860763748383358E-7</v>
       </c>
       <c r="E74">
         <v>50</v>
@@ -1732,16 +1772,16 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="4"/>
-        <v>825.00000000005946</v>
+        <f t="shared" si="5"/>
+        <v>400.00000017562866</v>
       </c>
       <c r="B75">
-        <f t="shared" si="5"/>
-        <v>1979999.999999786</v>
+        <f t="shared" si="4"/>
+        <v>959999.99936773675</v>
       </c>
       <c r="C75">
-        <f t="shared" si="6"/>
-        <v>1.4859122327632373E-10</v>
+        <f t="shared" si="3"/>
+        <v>4.3907170442657338E-7</v>
       </c>
       <c r="E75">
         <v>50</v>
@@ -1749,16 +1789,16 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="4"/>
-        <v>824.99999999996032</v>
+        <f t="shared" si="5"/>
+        <v>399.99999988291421</v>
       </c>
       <c r="B76">
-        <f t="shared" si="5"/>
-        <v>1980000.0000001427</v>
+        <f t="shared" si="4"/>
+        <v>960000.0004215088</v>
       </c>
       <c r="C76">
-        <f t="shared" si="6"/>
-        <v>-9.9114711499876443E-11</v>
+        <f t="shared" si="3"/>
+        <v>-2.9271444266972444E-7</v>
       </c>
       <c r="E76">
         <v>50</v>
@@ -1766,16 +1806,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="4"/>
-        <v>825.00000000002649</v>
+        <f t="shared" si="5"/>
+        <v>400.00000007805716</v>
       </c>
       <c r="B77">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999048</v>
+        <f t="shared" si="4"/>
+        <v>959999.99971899414</v>
       </c>
       <c r="C77">
-        <f t="shared" si="6"/>
-        <v>6.6130370315578246E-11</v>
+        <f t="shared" si="3"/>
+        <v>1.9514296177981628E-7</v>
       </c>
       <c r="E77">
         <v>50</v>
@@ -1783,16 +1823,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="4"/>
-        <v>824.99999999998238</v>
+        <f t="shared" si="5"/>
+        <v>399.9999999479619</v>
       </c>
       <c r="B78">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000636</v>
+        <f t="shared" si="4"/>
+        <v>960000.00018733717</v>
       </c>
       <c r="C78">
-        <f t="shared" si="6"/>
-        <v>-4.4140809526046115E-11</v>
+        <f t="shared" si="3"/>
+        <v>-1.3009525395722854E-7</v>
       </c>
       <c r="E78">
         <v>50</v>
@@ -1800,16 +1840,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="4"/>
-        <v>825.00000000001182</v>
+        <f t="shared" si="5"/>
+        <v>400.00000003469205</v>
       </c>
       <c r="B79">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999576</v>
+        <f t="shared" si="4"/>
+        <v>959999.9998751086</v>
       </c>
       <c r="C79">
-        <f t="shared" si="6"/>
-        <v>2.942720635069741E-11</v>
+        <f t="shared" si="3"/>
+        <v>8.6730142356827858E-8</v>
       </c>
       <c r="E79">
         <v>50</v>
@@ -1817,16 +1857,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="4"/>
-        <v>824.99999999999204</v>
+        <f t="shared" si="5"/>
+        <v>399.99999997687195</v>
       </c>
       <c r="B80">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000284</v>
+        <f t="shared" si="4"/>
+        <v>960000.00008326094</v>
       </c>
       <c r="C80">
-        <f t="shared" si="6"/>
-        <v>-1.9725929531786178E-11</v>
+        <f t="shared" si="3"/>
+        <v>-5.7820094904551905E-8</v>
       </c>
       <c r="E80">
         <v>50</v>
@@ -1834,16 +1874,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="4"/>
-        <v>825.00000000000534</v>
+        <f t="shared" si="5"/>
+        <v>400.00000001541866</v>
       </c>
       <c r="B81">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999809</v>
+        <f t="shared" si="4"/>
+        <v>959999.99994449271</v>
       </c>
       <c r="C81">
-        <f t="shared" si="6"/>
-        <v>1.325841165251202E-11</v>
+        <f t="shared" si="3"/>
+        <v>3.8546729936367935E-8</v>
       </c>
       <c r="E81">
         <v>50</v>
@@ -1851,16 +1891,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="4"/>
-        <v>824.99999999999648</v>
+        <f t="shared" si="5"/>
+        <v>399.99999998972089</v>
       </c>
       <c r="B82">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000128</v>
+        <f t="shared" si="4"/>
+        <v>960000.00003700482</v>
       </c>
       <c r="C82">
-        <f t="shared" si="6"/>
-        <v>-8.8928370840019657E-12</v>
+        <f t="shared" si="3"/>
+        <v>-2.569779300958746E-8</v>
       </c>
       <c r="E82">
         <v>50</v>
@@ -1868,16 +1908,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="4"/>
-        <v>825.00000000000227</v>
+        <f t="shared" si="5"/>
+        <v>400.0000000068527</v>
       </c>
       <c r="B83">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999916</v>
+        <f t="shared" si="4"/>
+        <v>959999.9999753302</v>
       </c>
       <c r="C83">
-        <f t="shared" si="6"/>
-        <v>5.820766091346741E-12</v>
+        <f t="shared" si="3"/>
+        <v>1.7131808110409311E-8</v>
       </c>
       <c r="E83">
         <v>50</v>
@@ -1885,16 +1925,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f t="shared" si="4"/>
-        <v>824.99999999999852</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999543155</v>
       </c>
       <c r="B84">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000054</v>
+        <f t="shared" si="4"/>
+        <v>960000.00001644646</v>
       </c>
       <c r="C84">
-        <f t="shared" si="6"/>
-        <v>-3.7188227805826396E-12</v>
+        <f t="shared" si="3"/>
+        <v>-1.1421151510957215E-8</v>
       </c>
       <c r="E84">
         <v>50</v>
@@ -1902,16 +1942,16 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f t="shared" si="4"/>
-        <v>825.00000000000091</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000304561</v>
       </c>
       <c r="B85">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999965</v>
+        <f t="shared" si="4"/>
+        <v>959999.99998903577</v>
       </c>
       <c r="C85">
-        <f t="shared" si="6"/>
-        <v>2.4253192047278085E-12</v>
+        <f t="shared" si="3"/>
+        <v>7.6140471113224826E-9</v>
       </c>
       <c r="E85">
         <v>50</v>
@@ -1919,16 +1959,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f t="shared" si="4"/>
-        <v>824.99999999999943</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999796961</v>
       </c>
       <c r="B86">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000021</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000730949</v>
       </c>
       <c r="C86">
-        <f t="shared" si="6"/>
-        <v>-1.4551915228366853E-12</v>
+        <f t="shared" si="3"/>
+        <v>-5.0760314075483212E-9</v>
       </c>
       <c r="E86">
         <v>50</v>
@@ -1936,16 +1976,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f t="shared" si="4"/>
-        <v>825.00000000000045</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000135356</v>
       </c>
       <c r="B87">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999986</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999512709</v>
       </c>
       <c r="C87">
-        <f t="shared" si="6"/>
-        <v>9.7012768189112344E-13</v>
+        <f t="shared" ref="C87:C139" si="6">(($G$12+$F$14-B87)*E87)/($F$2*1000)</f>
+        <v>3.3839670423832206E-9</v>
       </c>
       <c r="E87">
         <v>50</v>
@@ -1953,16 +1993,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999909761</v>
       </c>
       <c r="B88">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000012</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000324857</v>
       </c>
       <c r="C88">
         <f t="shared" si="6"/>
-        <v>-8.084397349092695E-13</v>
+        <v>-2.2559510802643166E-9</v>
       </c>
       <c r="E88">
         <v>50</v>
@@ -1970,16 +2010,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000060163</v>
       </c>
       <c r="B89">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999783421</v>
       </c>
       <c r="C89">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>1.504021282825205E-9</v>
       </c>
       <c r="E89">
         <v>50</v>
@@ -1987,16 +2027,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999959891</v>
       </c>
       <c r="B90">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.0000014439</v>
       </c>
       <c r="C90">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-1.002707803207967E-9</v>
       </c>
       <c r="E90">
         <v>50</v>
@@ -2004,16 +2044,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000026739</v>
       </c>
       <c r="B91">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999903736</v>
       </c>
       <c r="C91">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>6.68498816796475E-10</v>
       </c>
       <c r="E91">
         <v>50</v>
@@ -2021,16 +2061,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.9999999998218</v>
       </c>
       <c r="B92">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000064168</v>
       </c>
       <c r="C92">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-4.4561198188198939E-10</v>
       </c>
       <c r="E92">
         <v>50</v>
@@ -2038,16 +2078,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.0000000001188</v>
       </c>
       <c r="B93">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999957229</v>
       </c>
       <c r="C93">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>2.9702075860566564E-10</v>
       </c>
       <c r="E93">
         <v>50</v>
@@ -2055,16 +2095,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999992082</v>
       </c>
       <c r="B94">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.0000002851</v>
       </c>
       <c r="C94">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-1.9798689107928012E-10</v>
       </c>
       <c r="E94">
         <v>50</v>
@@ -2072,16 +2112,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000005275</v>
       </c>
       <c r="B95">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999981001</v>
       </c>
       <c r="C95">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>1.3193736473719279E-10</v>
       </c>
       <c r="E95">
         <v>50</v>
@@ -2089,16 +2129,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999996481</v>
       </c>
       <c r="B96">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000012666</v>
       </c>
       <c r="C96">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-8.7958243158128524E-11</v>
       </c>
       <c r="E96">
         <v>50</v>
@@ -2106,16 +2146,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000002342</v>
       </c>
       <c r="B97">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.9999999156</v>
       </c>
       <c r="C97">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>5.8611880780922041E-11</v>
       </c>
       <c r="E97">
         <v>50</v>
@@ -2123,16 +2163,16 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999998437</v>
       </c>
       <c r="B98">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000005623</v>
       </c>
       <c r="C98">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.9047639196117716E-11</v>
       </c>
       <c r="E98">
         <v>50</v>
@@ -2140,16 +2180,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.0000000000104</v>
       </c>
       <c r="B99">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999996251</v>
       </c>
       <c r="C99">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>2.6031759464078481E-11</v>
       </c>
       <c r="E99">
         <v>50</v>
@@ -2157,16 +2197,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999312</v>
       </c>
       <c r="B100">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000002491</v>
       </c>
       <c r="C100">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-1.7300610327058368E-11</v>
       </c>
       <c r="E100">
         <v>50</v>
@@ -2174,16 +2214,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.0000000000046</v>
       </c>
       <c r="B101">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999998347</v>
       </c>
       <c r="C101">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>1.1479844235711627E-11</v>
       </c>
       <c r="E101">
         <v>50</v>
@@ -2191,16 +2231,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999693</v>
       </c>
       <c r="B102">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000001106</v>
       </c>
       <c r="C102">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-7.6801774816380609E-12</v>
       </c>
       <c r="E102">
         <v>50</v>
@@ -2208,16 +2248,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000205</v>
       </c>
       <c r="B103">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999267</v>
       </c>
       <c r="C103">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>5.0931703299283978E-12</v>
       </c>
       <c r="E103">
         <v>50</v>
@@ -2225,16 +2265,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999864</v>
       </c>
       <c r="B104">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000489</v>
       </c>
       <c r="C104">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.3954468866189321E-12</v>
       </c>
       <c r="E104">
         <v>50</v>
@@ -2242,16 +2282,16 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000091</v>
       </c>
       <c r="B105">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999674</v>
       </c>
       <c r="C105">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>2.2636312577459548E-12</v>
       </c>
       <c r="E105">
         <v>50</v>
@@ -2259,16 +2299,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999937</v>
       </c>
       <c r="B106">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000221</v>
       </c>
       <c r="C106">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-1.5360354963276121E-12</v>
       </c>
       <c r="E106">
         <v>50</v>
@@ -2276,16 +2316,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.0000000000004</v>
       </c>
       <c r="B107">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999849</v>
       </c>
       <c r="C107">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>1.0509716553820503E-12</v>
       </c>
       <c r="E107">
         <v>50</v>
@@ -2293,12 +2333,12 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999977</v>
       </c>
       <c r="B108">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000093</v>
       </c>
       <c r="C108">
         <f t="shared" si="6"/>
@@ -2310,16 +2350,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B109">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999942</v>
       </c>
       <c r="C109">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>4.0421986745463475E-13</v>
       </c>
       <c r="E109">
         <v>50</v>
@@ -2327,16 +2367,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B110">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C110">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E110">
         <v>50</v>
@@ -2344,16 +2384,16 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B111">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C111">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E111">
         <v>50</v>
@@ -2361,16 +2401,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B112">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C112">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E112">
         <v>50</v>
@@ -2378,16 +2418,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B113">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C113">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E113">
         <v>50</v>
@@ -2395,16 +2435,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B114">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C114">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E114">
         <v>50</v>
@@ -2412,16 +2452,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B115">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C115">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E115">
         <v>50</v>
@@ -2429,16 +2469,16 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B116">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C116">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E116">
         <v>50</v>
@@ -2446,16 +2486,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B117">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C117">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E117">
         <v>50</v>
@@ -2463,16 +2503,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B118">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C118">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E118">
         <v>50</v>
@@ -2480,16 +2520,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B119">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C119">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E119">
         <v>50</v>
@@ -2497,16 +2537,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B120">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C120">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E120">
         <v>50</v>
@@ -2514,16 +2554,16 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B121">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C121">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E121">
         <v>50</v>
@@ -2531,16 +2571,16 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B122">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C122">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E122">
         <v>50</v>
@@ -2548,16 +2588,16 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B123">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C123">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E123">
         <v>50</v>
@@ -2565,16 +2605,16 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B124">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C124">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E124">
         <v>50</v>
@@ -2582,16 +2622,16 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B125">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C125">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E125">
         <v>50</v>
@@ -2599,16 +2639,16 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B126">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C126">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E126">
         <v>50</v>
@@ -2616,16 +2656,16 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B127">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C127">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E127">
         <v>50</v>
@@ -2633,16 +2673,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B128">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C128">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E128">
         <v>50</v>
@@ -2650,16 +2690,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B129">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C129">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E129">
         <v>50</v>
@@ -2667,16 +2707,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" si="4"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B130">
-        <f t="shared" si="5"/>
-        <v>1980000.0000000009</v>
+        <f t="shared" si="4"/>
+        <v>960000.00000000047</v>
       </c>
       <c r="C130">
         <f t="shared" si="6"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E130">
         <v>50</v>
@@ -2684,16 +2724,16 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f t="shared" si="4"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="5"/>
+        <v>400.00000000000017</v>
       </c>
       <c r="B131">
-        <f t="shared" si="5"/>
-        <v>1979999.9999999991</v>
+        <f t="shared" si="4"/>
+        <v>959999.99999999953</v>
       </c>
       <c r="C131">
         <f t="shared" si="6"/>
-        <v>6.4675178792741566E-13</v>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E131">
         <v>50</v>
@@ -2701,16 +2741,16 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" ref="A132:A195" si="7">A131+(($F$12+$F$14-B132)*E132)/($F$2*1000)</f>
-        <v>824.99999999999966</v>
+        <f t="shared" si="5"/>
+        <v>399.99999999999983</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132:B171" si="8">($F$8*A131)</f>
-        <v>1980000.0000000009</v>
+        <f t="shared" ref="B132:B171" si="7">($F$8*A131)</f>
+        <v>960000.00000000047</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:C195" si="9">(($F$12+$F$14-B132)*E132)/($F$2*1000)</f>
-        <v>-6.4675178792741566E-13</v>
+        <f t="shared" si="6"/>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E132">
         <v>50</v>
@@ -2718,16 +2758,16 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
+        <f t="shared" ref="A133:A196" si="8">A132+C133</f>
+        <v>400.00000000000017</v>
+      </c>
+      <c r="B133">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B133">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>959999.99999999953</v>
       </c>
       <c r="C133">
-        <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <f t="shared" si="6"/>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E133">
         <v>50</v>
@@ -2735,16 +2775,16 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
+        <f t="shared" si="8"/>
+        <v>399.99999999999983</v>
+      </c>
+      <c r="B134">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B134">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>960000.00000000047</v>
       </c>
       <c r="C134">
-        <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <f t="shared" si="6"/>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E134">
         <v>50</v>
@@ -2752,16 +2792,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
+        <f t="shared" si="8"/>
+        <v>400.00000000000017</v>
+      </c>
+      <c r="B135">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B135">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>959999.99999999953</v>
       </c>
       <c r="C135">
-        <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <f t="shared" si="6"/>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E135">
         <v>50</v>
@@ -2769,16 +2809,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
+        <f t="shared" si="8"/>
+        <v>399.99999999999983</v>
+      </c>
+      <c r="B136">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B136">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>960000.00000000047</v>
       </c>
       <c r="C136">
-        <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <f t="shared" si="6"/>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E136">
         <v>50</v>
@@ -2786,16 +2826,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
+        <f t="shared" si="8"/>
+        <v>400.00000000000017</v>
+      </c>
+      <c r="B137">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B137">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>959999.99999999953</v>
       </c>
       <c r="C137">
-        <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <f t="shared" si="6"/>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E137">
         <v>50</v>
@@ -2803,16 +2843,16 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
+        <f t="shared" si="8"/>
+        <v>399.99999999999983</v>
+      </c>
+      <c r="B138">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B138">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>960000.00000000047</v>
       </c>
       <c r="C138">
-        <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <f t="shared" si="6"/>
+        <v>-3.2337589396370783E-13</v>
       </c>
       <c r="E138">
         <v>50</v>
@@ -2820,16 +2860,16 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
+        <f t="shared" si="8"/>
+        <v>400.00000000000017</v>
+      </c>
+      <c r="B139">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B139">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>959999.99999999953</v>
       </c>
       <c r="C139">
-        <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <f t="shared" si="6"/>
+        <v>3.2337589396370783E-13</v>
       </c>
       <c r="E139">
         <v>50</v>
@@ -2837,16 +2877,16 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
+        <f t="shared" si="8"/>
+        <v>1344.4444444444441</v>
+      </c>
+      <c r="B140">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B140">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>960000.00000000047</v>
       </c>
       <c r="C140">
-        <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <f t="shared" ref="C132:C195" si="9">(($F$12+$F$14-B140)*E140)/($F$2*1000)</f>
+        <v>944.444444444444</v>
       </c>
       <c r="E140">
         <v>50</v>
@@ -2854,16 +2894,16 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
+        <f t="shared" si="8"/>
+        <v>714.81481481481501</v>
+      </c>
+      <c r="B141">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B141">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>3226666.666666666</v>
       </c>
       <c r="C141">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-629.62962962962911</v>
       </c>
       <c r="E141">
         <v>50</v>
@@ -2871,16 +2911,16 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
+        <f t="shared" si="8"/>
+        <v>1134.5679012345677</v>
+      </c>
+      <c r="B142">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B142">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>1715555.555555556</v>
       </c>
       <c r="C142">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>419.75308641975278</v>
       </c>
       <c r="E142">
         <v>50</v>
@@ -2888,16 +2928,16 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
+        <f t="shared" si="8"/>
+        <v>854.73251028806612</v>
+      </c>
+      <c r="B143">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B143">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2722962.9629629622</v>
       </c>
       <c r="C143">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-279.83539094650155</v>
       </c>
       <c r="E143">
         <v>50</v>
@@ -2905,16 +2945,16 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
+        <f t="shared" si="8"/>
+        <v>1041.2894375857338</v>
+      </c>
+      <c r="B144">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B144">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2051358.0246913587</v>
       </c>
       <c r="C144">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>186.55692729766761</v>
       </c>
       <c r="E144">
         <v>50</v>
@@ -2922,16 +2962,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
+        <f t="shared" si="8"/>
+        <v>916.91815272062183</v>
+      </c>
+      <c r="B145">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B145">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2499094.6502057612</v>
       </c>
       <c r="C145">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-124.37128486511195</v>
       </c>
       <c r="E145">
         <v>50</v>
@@ -2939,16 +2979,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
+        <f t="shared" si="8"/>
+        <v>999.83234263069653</v>
+      </c>
+      <c r="B146">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B146">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2200603.5665294924</v>
       </c>
       <c r="C146">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>82.914189910074739</v>
       </c>
       <c r="E146">
         <v>50</v>
@@ -2956,16 +2996,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
+        <f t="shared" si="8"/>
+        <v>944.55621602398003</v>
+      </c>
+      <c r="B147">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B147">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2399597.6223136717</v>
       </c>
       <c r="C147">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-55.276126606716488</v>
       </c>
       <c r="E147">
         <v>50</v>
@@ -2973,16 +3013,16 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
+        <f t="shared" si="8"/>
+        <v>981.40696709512463</v>
+      </c>
+      <c r="B148">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B148">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2266934.9184575519</v>
       </c>
       <c r="C148">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>36.850751071144543</v>
       </c>
       <c r="E148">
         <v>50</v>
@@ -2990,16 +3030,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
+        <f t="shared" si="8"/>
+        <v>956.83979971436133</v>
+      </c>
+      <c r="B149">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B149">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2355376.7210282991</v>
       </c>
       <c r="C149">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-24.567167380763244</v>
       </c>
       <c r="E149">
         <v>50</v>
@@ -3007,16 +3047,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
+        <f t="shared" si="8"/>
+        <v>973.21791130153701</v>
+      </c>
+      <c r="B150">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B150">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2296415.519314467</v>
       </c>
       <c r="C150">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>16.378111587175713</v>
       </c>
       <c r="E150">
         <v>50</v>
@@ -3024,16 +3064,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
+        <f t="shared" si="8"/>
+        <v>962.29917024341989</v>
+      </c>
+      <c r="B151">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B151">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2335722.9871236887</v>
       </c>
       <c r="C151">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-10.91874105811714</v>
       </c>
       <c r="E151">
         <v>50</v>
@@ -3041,16 +3081,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
+        <f t="shared" si="8"/>
+        <v>969.57833094883108</v>
+      </c>
+      <c r="B152">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B152">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2309518.0085842079</v>
       </c>
       <c r="C152">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>7.2791607054112113</v>
       </c>
       <c r="E152">
         <v>50</v>
@@ -3058,16 +3098,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
+        <f t="shared" si="8"/>
+        <v>964.72555714522366</v>
+      </c>
+      <c r="B153">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B153">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2326987.9942771946</v>
       </c>
       <c r="C153">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-4.8527738036073664</v>
       </c>
       <c r="E153">
         <v>50</v>
@@ -3075,16 +3115,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
+        <f t="shared" si="8"/>
+        <v>967.96073968096186</v>
+      </c>
+      <c r="B154">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B154">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2315341.3371485369</v>
       </c>
       <c r="C154">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>3.2351825357382444</v>
       </c>
       <c r="E154">
         <v>50</v>
@@ -3092,16 +3132,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
+        <f t="shared" si="8"/>
+        <v>965.80395132380318</v>
+      </c>
+      <c r="B155">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B155">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2323105.7752343086</v>
       </c>
       <c r="C155">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-2.1567883571587219</v>
       </c>
       <c r="E155">
         <v>50</v>
@@ -3109,16 +3149,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
+        <f t="shared" si="8"/>
+        <v>967.24181022857556</v>
+      </c>
+      <c r="B156">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B156">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2317929.4831771278</v>
       </c>
       <c r="C156">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.4378589047723733</v>
       </c>
       <c r="E156">
         <v>50</v>
@@ -3126,16 +3166,16 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
+        <f t="shared" si="8"/>
+        <v>966.28323762539424</v>
+      </c>
+      <c r="B157">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B157">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2321380.3445485812</v>
       </c>
       <c r="C157">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-0.95857260318136672</v>
       </c>
       <c r="E157">
         <v>50</v>
@@ -3143,16 +3183,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
+        <f t="shared" si="8"/>
+        <v>966.92228602751493</v>
+      </c>
+      <c r="B158">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B158">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2319079.7703009462</v>
       </c>
       <c r="C158">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>0.63904840212069558</v>
       </c>
       <c r="E158">
         <v>50</v>
@@ -3160,16 +3200,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
+        <f t="shared" si="8"/>
+        <v>966.49625375943458</v>
+      </c>
+      <c r="B159">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B159">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2320613.4864660357</v>
       </c>
       <c r="C159">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-0.42603226808035594</v>
       </c>
       <c r="E159">
         <v>50</v>
@@ -3177,16 +3217,16 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
+        <f t="shared" si="8"/>
+        <v>966.78027527148811</v>
+      </c>
+      <c r="B160">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B160">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2319591.0090226429</v>
       </c>
       <c r="C160">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>0.28402151205357062</v>
       </c>
       <c r="E160">
         <v>50</v>
@@ -3194,16 +3234,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
+        <f t="shared" si="8"/>
+        <v>966.5909275967856</v>
+      </c>
+      <c r="B161">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B161">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2320272.6606515716</v>
       </c>
       <c r="C161">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-0.1893476747024882</v>
       </c>
       <c r="E161">
         <v>50</v>
@@ -3211,16 +3251,16 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
+        <f t="shared" si="8"/>
+        <v>966.71715937992064</v>
+      </c>
+      <c r="B162">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B162">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2319818.2262322856</v>
       </c>
       <c r="C162">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>0.12623178313499214</v>
       </c>
       <c r="E162">
         <v>50</v>
@@ -3228,16 +3268,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
+        <f t="shared" si="8"/>
+        <v>966.63300485783054</v>
+      </c>
+      <c r="B163">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B163">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2320121.1825118097</v>
       </c>
       <c r="C163">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-8.4154522090102546E-2</v>
       </c>
       <c r="E163">
         <v>50</v>
@@ -3245,16 +3285,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
+        <f t="shared" si="8"/>
+        <v>966.68910787255732</v>
+      </c>
+      <c r="B164">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B164">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2319919.2116587935</v>
       </c>
       <c r="C164">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>5.6103014726735033E-2</v>
       </c>
       <c r="E164">
         <v>50</v>
@@ -3262,16 +3302,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
+        <f t="shared" si="8"/>
+        <v>966.6517058627395</v>
+      </c>
+      <c r="B165">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B165">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2320053.8588941377</v>
       </c>
       <c r="C165">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-3.7402009817823351E-2</v>
       </c>
       <c r="E165">
         <v>50</v>
@@ -3279,16 +3319,16 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
+        <f t="shared" si="8"/>
+        <v>966.67664053595149</v>
+      </c>
+      <c r="B166">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B166">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2319964.0940705747</v>
       </c>
       <c r="C166">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>2.4934673211990027E-2</v>
       </c>
       <c r="E166">
         <v>50</v>
@@ -3296,16 +3336,16 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
+        <f t="shared" si="8"/>
+        <v>966.66001742047695</v>
+      </c>
+      <c r="B167">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B167">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2320023.9372862834</v>
       </c>
       <c r="C167">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.6623115474552228E-2</v>
       </c>
       <c r="E167">
         <v>50</v>
@@ -3313,16 +3353,16 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
+        <f t="shared" si="8"/>
+        <v>966.67109949745964</v>
+      </c>
+      <c r="B168">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B168">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2319984.0418091449</v>
       </c>
       <c r="C168">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.1082076982711441E-2</v>
       </c>
       <c r="E168">
         <v>50</v>
@@ -3330,16 +3370,16 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
+        <f t="shared" si="8"/>
+        <v>966.66371144613811</v>
+      </c>
+      <c r="B169">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B169">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2320010.6387939029</v>
       </c>
       <c r="C169">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-7.3880513214842521E-3</v>
       </c>
       <c r="E169">
         <v>50</v>
@@ -3347,16 +3387,16 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
+        <f t="shared" si="8"/>
+        <v>966.66863681368568</v>
+      </c>
+      <c r="B170">
         <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B170">
-        <f t="shared" si="8"/>
-        <v>1980000.0000000009</v>
+        <v>2319992.9074707315</v>
       </c>
       <c r="C170">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>4.9253675475483764E-3</v>
       </c>
       <c r="E170">
         <v>50</v>
@@ -3364,16 +3404,16 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
+        <f t="shared" si="8"/>
+        <v>966.66535323532059</v>
+      </c>
+      <c r="B171">
         <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B171">
-        <f t="shared" si="8"/>
-        <v>1979999.9999999991</v>
+        <v>2320004.7283528456</v>
       </c>
       <c r="C171">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-3.2835783650322506E-3</v>
       </c>
       <c r="E171">
         <v>50</v>
@@ -3381,16 +3421,16 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66754228756395</v>
       </c>
       <c r="B172">
         <f t="shared" ref="B172:B195" si="10">($F$8*A171)</f>
-        <v>1980000.0000000009</v>
+        <v>2319996.8477647696</v>
       </c>
       <c r="C172">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>2.1890522433548336E-3</v>
       </c>
       <c r="E172">
         <v>50</v>
@@ -3398,16 +3438,16 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66608291940179</v>
       </c>
       <c r="B173">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320002.1014901535</v>
       </c>
       <c r="C173">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.4593681621287639E-3</v>
       </c>
       <c r="E173">
         <v>50</v>
@@ -3415,16 +3455,16 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66705583150986</v>
       </c>
       <c r="B174">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319998.5990065644</v>
       </c>
       <c r="C174">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>9.7291210808584262E-4</v>
       </c>
       <c r="E174">
         <v>50</v>
@@ -3432,16 +3472,16 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66640722343789</v>
       </c>
       <c r="B175">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.9339956236</v>
       </c>
       <c r="C175">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-6.4860807194943638E-4</v>
       </c>
       <c r="E175">
         <v>50</v>
@@ -3449,16 +3489,16 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66683962881905</v>
       </c>
       <c r="B176">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.3773362511</v>
       </c>
       <c r="C176">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>4.3240538119183235E-4</v>
       </c>
       <c r="E176">
         <v>50</v>
@@ -3466,16 +3506,16 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.6665513585649</v>
       </c>
       <c r="B177">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.4151091659</v>
       </c>
       <c r="C177">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-2.882702541278882E-4</v>
       </c>
       <c r="E177">
         <v>50</v>
@@ -3483,16 +3523,16 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66674353873441</v>
       </c>
       <c r="B178">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.7232605559</v>
       </c>
       <c r="C178">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.9218016952638411E-4</v>
       </c>
       <c r="E178">
         <v>50</v>
@@ -3500,16 +3540,16 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66661541862163</v>
       </c>
       <c r="B179">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.1844929624</v>
       </c>
       <c r="C179">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.2812011280200549E-4</v>
       </c>
       <c r="E179">
         <v>50</v>
@@ -3517,16 +3557,16 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66670083203007</v>
       </c>
       <c r="B180">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.8770046919</v>
       </c>
       <c r="C180">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>8.5413408426878354E-5</v>
       </c>
       <c r="E180">
         <v>50</v>
@@ -3534,16 +3574,16 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66664388975778</v>
       </c>
       <c r="B181">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.0819968721</v>
       </c>
       <c r="C181">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-5.6942272284585569E-5</v>
       </c>
       <c r="E181">
         <v>50</v>
@@ -3551,16 +3591,16 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66668185127276</v>
       </c>
       <c r="B182">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.9453354185</v>
       </c>
       <c r="C182">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>3.7961514964182345E-5</v>
       </c>
       <c r="E182">
         <v>50</v>
@@ -3568,16 +3608,16 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66665654359588</v>
       </c>
       <c r="B183">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.0364430547</v>
       </c>
       <c r="C183">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-2.530767685837216E-5</v>
       </c>
       <c r="E183">
         <v>50</v>
@@ -3585,16 +3625,16 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66667341538061</v>
       </c>
       <c r="B184">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.9757046299</v>
       </c>
       <c r="C184">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.6871784787832035E-5</v>
       </c>
       <c r="E184">
         <v>50</v>
@@ -3602,16 +3642,16 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66666216752401</v>
       </c>
       <c r="B185">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.0161969136</v>
       </c>
       <c r="C185">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.1247856633013321E-5</v>
       </c>
       <c r="E185">
         <v>50</v>
@@ -3619,16 +3659,16 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66666966609523</v>
       </c>
       <c r="B186">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.9892020575</v>
       </c>
       <c r="C186">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>7.498571196467512E-6</v>
       </c>
       <c r="E186">
         <v>50</v>
@@ -3636,16 +3676,16 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66666466704771</v>
       </c>
       <c r="B187">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.0071986285</v>
       </c>
       <c r="C187">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-4.9990475721036397E-6</v>
       </c>
       <c r="E187">
         <v>50</v>
@@ -3653,16 +3693,16 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.6666679997461</v>
       </c>
       <c r="B188">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.9952009143</v>
       </c>
       <c r="C188">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>3.3326983814024264E-6</v>
       </c>
       <c r="E188">
         <v>50</v>
@@ -3670,16 +3710,16 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66666577794706</v>
       </c>
       <c r="B189">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.0031993906</v>
       </c>
       <c r="C189">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-2.2217990287269155E-6</v>
       </c>
       <c r="E189">
         <v>50</v>
@@ -3687,16 +3727,16 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66666725914638</v>
       </c>
       <c r="B190">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.9978670729</v>
       </c>
       <c r="C190">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.4811993524846103E-6</v>
       </c>
       <c r="E190">
         <v>50</v>
@@ -3704,16 +3744,16 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66666627168024</v>
       </c>
       <c r="B191">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.0014219512</v>
       </c>
       <c r="C191">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-9.8746612719777554E-7</v>
       </c>
       <c r="E191">
         <v>50</v>
@@ -3721,16 +3761,16 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66666692999115</v>
       </c>
       <c r="B192">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.9990520324</v>
       </c>
       <c r="C192">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>6.5831085925714842E-7</v>
       </c>
       <c r="E192">
         <v>50</v>
@@ -3738,16 +3778,16 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.66666649111698</v>
       </c>
       <c r="B193">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.0006319787</v>
       </c>
       <c r="C193">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-4.3887412175536157E-7</v>
       </c>
       <c r="E193">
         <v>50</v>
@@ -3755,16 +3795,16 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="7"/>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66666678369972</v>
       </c>
       <c r="B194">
         <f t="shared" si="10"/>
-        <v>1980000.0000000009</v>
+        <v>2319999.9995786808</v>
       </c>
       <c r="C194">
         <f t="shared" si="9"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>2.9258274783690773E-7</v>
       </c>
       <c r="E194">
         <v>50</v>
@@ -3772,16 +3812,16 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" si="7"/>
-        <v>825.00000000000034</v>
+        <f t="shared" si="8"/>
+        <v>966.6666665886446</v>
       </c>
       <c r="B195">
         <f t="shared" si="10"/>
-        <v>1979999.9999999991</v>
+        <v>2320000.0002808794</v>
       </c>
       <c r="C195">
         <f t="shared" si="9"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.9505516522460514E-7</v>
       </c>
       <c r="E195">
         <v>50</v>
@@ -3789,16 +3829,16 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" ref="A196:A220" si="11">A195+(($F$12+$F$14-B196)*E196)/($F$2*1000)</f>
-        <v>824.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>966.66666671868154</v>
       </c>
       <c r="B196">
-        <f t="shared" ref="B196:B220" si="12">($F$8*A195)</f>
-        <v>1980000.0000000009</v>
+        <f t="shared" ref="B196:B220" si="11">($F$8*A195)</f>
+        <v>2319999.9998127469</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C222" si="13">(($F$12+$F$14-B196)*E196)/($F$2*1000)</f>
-        <v>-6.4675178792741566E-13</v>
+        <f t="shared" ref="C196:C222" si="12">(($F$12+$F$14-B196)*E196)/($F$2*1000)</f>
+        <v>1.3003688460836809E-7</v>
       </c>
       <c r="E196">
         <v>50</v>
@@ -3806,16 +3846,16 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
+        <f t="shared" ref="A197:A220" si="13">A196+C197</f>
+        <v>966.66666663198998</v>
+      </c>
+      <c r="B197">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B197">
+        <v>2320000.0001248359</v>
+      </c>
+      <c r="C197">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C197">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-8.6691579781472678E-8</v>
       </c>
       <c r="E197">
         <v>50</v>
@@ -3823,16 +3863,16 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
+        <f t="shared" si="13"/>
+        <v>966.66666668978439</v>
+      </c>
+      <c r="B198">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B198">
+        <v>2319999.9999167761</v>
+      </c>
+      <c r="C198">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C198">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>5.7794386520981787E-8</v>
       </c>
       <c r="E198">
         <v>50</v>
@@ -3840,16 +3880,16 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
+        <f t="shared" si="13"/>
+        <v>966.66666665125479</v>
+      </c>
+      <c r="B199">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B199">
+        <v>2320000.0000554826</v>
+      </c>
+      <c r="C199">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C199">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-3.8529591013987856E-8</v>
       </c>
       <c r="E199">
         <v>50</v>
@@ -3857,16 +3897,16 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
+        <f t="shared" si="13"/>
+        <v>966.66666667694119</v>
+      </c>
+      <c r="B200">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B200">
+        <v>2319999.9999630116</v>
+      </c>
+      <c r="C200">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C200">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>2.568639400932524E-8</v>
       </c>
       <c r="E200">
         <v>50</v>
@@ -3874,16 +3914,16 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
+        <f t="shared" si="13"/>
+        <v>966.66666665981711</v>
+      </c>
+      <c r="B201">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B201">
+        <v>2320000.0000246586</v>
+      </c>
+      <c r="C201">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C201">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.7124047088954183E-8</v>
       </c>
       <c r="E201">
         <v>50</v>
@@ -3891,16 +3931,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
+        <f t="shared" si="13"/>
+        <v>966.66666667123297</v>
+      </c>
+      <c r="B202">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B202">
+        <v>2319999.9999835612</v>
+      </c>
+      <c r="C202">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C202">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.1415815808706814E-8</v>
       </c>
       <c r="E202">
         <v>50</v>
@@ -3908,16 +3948,16 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
+        <f t="shared" si="13"/>
+        <v>966.66666666362232</v>
+      </c>
+      <c r="B203">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B203">
+        <v>2320000.0000109593</v>
+      </c>
+      <c r="C203">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C203">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-7.6106516644358635E-9</v>
       </c>
       <c r="E203">
         <v>50</v>
@@ -3925,16 +3965,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
+        <f t="shared" si="13"/>
+        <v>966.66666666869605</v>
+      </c>
+      <c r="B204">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B204">
+        <v>2319999.9999926938</v>
+      </c>
+      <c r="C204">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C204">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>5.0737677762905759E-9</v>
       </c>
       <c r="E204">
         <v>50</v>
@@ -3942,16 +3982,16 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
+        <f t="shared" si="13"/>
+        <v>966.66666666531387</v>
+      </c>
+      <c r="B205">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B205">
+        <v>2320000.0000048704</v>
+      </c>
+      <c r="C205">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C205">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-3.38218847496642E-9</v>
       </c>
       <c r="E205">
         <v>50</v>
@@ -3959,16 +3999,16 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
+        <f t="shared" si="13"/>
+        <v>966.66666666756839</v>
+      </c>
+      <c r="B206">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B206">
+        <v>2319999.9999967534</v>
+      </c>
+      <c r="C206">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C206">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>2.254576732714971E-9</v>
       </c>
       <c r="E206">
         <v>50</v>
@@ -3976,16 +4016,16 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
+        <f t="shared" si="13"/>
+        <v>966.66666666606568</v>
+      </c>
+      <c r="B207">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B207">
+        <v>2320000.0000021639</v>
+      </c>
+      <c r="C207">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C207">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.5027277792493502E-9</v>
       </c>
       <c r="E207">
         <v>50</v>
@@ -3993,16 +4033,16 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
+        <f t="shared" si="13"/>
+        <v>966.66666666706715</v>
+      </c>
+      <c r="B208">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B208">
+        <v>2319999.9999985578</v>
+      </c>
+      <c r="C208">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C208">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.0014951436056031E-9</v>
       </c>
       <c r="E208">
         <v>50</v>
@@ -4010,16 +4050,16 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
+        <f t="shared" si="13"/>
+        <v>966.66666666639969</v>
+      </c>
+      <c r="B209">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B209">
+        <v>2320000.0000009611</v>
+      </c>
+      <c r="C209">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C209">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-6.6744784514109294E-10</v>
       </c>
       <c r="E209">
         <v>50</v>
@@ -4027,16 +4067,16 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
+        <f t="shared" si="13"/>
+        <v>966.66666666684466</v>
+      </c>
+      <c r="B210">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B210">
+        <v>2319999.9999993593</v>
+      </c>
+      <c r="C210">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C210">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>4.4496523009406198E-10</v>
       </c>
       <c r="E210">
         <v>50</v>
@@ -4044,16 +4084,16 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
+        <f t="shared" si="13"/>
+        <v>966.66666666654817</v>
+      </c>
+      <c r="B211">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B211">
+        <v>2320000.000000427</v>
+      </c>
+      <c r="C211">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C211">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-2.9653569476472005E-10</v>
       </c>
       <c r="E211">
         <v>50</v>
@@ -4061,16 +4101,16 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
+        <f t="shared" si="13"/>
+        <v>966.66666666674575</v>
+      </c>
+      <c r="B212">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B212">
+        <v>2319999.9999997155</v>
+      </c>
+      <c r="C212">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C212">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.9758267121182547E-10</v>
       </c>
       <c r="E212">
         <v>50</v>
@@ -4078,16 +4118,16 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
+        <f t="shared" si="13"/>
+        <v>966.66666666661376</v>
+      </c>
+      <c r="B213">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B213">
+        <v>2320000.00000019</v>
+      </c>
+      <c r="C213">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C213">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.3193736473719279E-10</v>
       </c>
       <c r="E213">
         <v>50</v>
@@ -4095,16 +4135,16 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
+        <f t="shared" si="13"/>
+        <v>966.6666666667021</v>
+      </c>
+      <c r="B214">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B214">
+        <v>2319999.9999998729</v>
+      </c>
+      <c r="C214">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C214">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>8.8281619052092231E-11</v>
       </c>
       <c r="E214">
         <v>50</v>
@@ -4112,16 +4152,16 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
+        <f t="shared" si="13"/>
+        <v>966.66666666664287</v>
+      </c>
+      <c r="B215">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B215">
+        <v>2320000.0000000852</v>
+      </c>
+      <c r="C215">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C215">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-5.9177788595358527E-11</v>
       </c>
       <c r="E215">
         <v>50</v>
@@ -4129,16 +4169,16 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
+        <f t="shared" si="13"/>
+        <v>966.66666666668266</v>
+      </c>
+      <c r="B216">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B216">
+        <v>2319999.9999999427</v>
+      </c>
+      <c r="C216">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C216">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>3.9775234957536062E-11</v>
       </c>
       <c r="E216">
         <v>50</v>
@@ -4146,16 +4186,16 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
+        <f t="shared" si="13"/>
+        <v>966.66666666665617</v>
+      </c>
+      <c r="B217">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B217">
+        <v>2320000.0000000382</v>
+      </c>
+      <c r="C217">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C217">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-2.6516823305024041E-11</v>
       </c>
       <c r="E217">
         <v>50</v>
@@ -4163,16 +4203,16 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
+        <f t="shared" si="13"/>
+        <v>966.66666666667368</v>
+      </c>
+      <c r="B218">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B218">
+        <v>2319999.9999999749</v>
+      </c>
+      <c r="C218">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C218">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>1.7462298274040222E-11</v>
       </c>
       <c r="E218">
         <v>50</v>
@@ -4180,16 +4220,16 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
+        <f t="shared" si="13"/>
+        <v>966.66666666666208</v>
+      </c>
+      <c r="B219">
         <f t="shared" si="11"/>
-        <v>825.00000000000034</v>
-      </c>
-      <c r="B219">
+        <v>2320000.0000000168</v>
+      </c>
+      <c r="C219">
         <f t="shared" si="12"/>
-        <v>1979999.9999999991</v>
-      </c>
-      <c r="C219">
-        <f t="shared" si="13"/>
-        <v>6.4675178792741566E-13</v>
+        <v>-1.1641532182693482E-11</v>
       </c>
       <c r="E219">
         <v>50</v>
@@ -4197,16 +4237,16 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
+        <f t="shared" si="13"/>
+        <v>966.66666666666981</v>
+      </c>
+      <c r="B220">
         <f t="shared" si="11"/>
-        <v>824.99999999999966</v>
-      </c>
-      <c r="B220">
+        <v>2319999.9999999888</v>
+      </c>
+      <c r="C220">
         <f t="shared" si="12"/>
-        <v>1980000.0000000009</v>
-      </c>
-      <c r="C220">
-        <f t="shared" si="13"/>
-        <v>-6.4675178792741566E-13</v>
+        <v>7.7610214551289875E-12</v>
       </c>
       <c r="E220">
         <v>50</v>
@@ -4214,14 +4254,155 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C221">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C222">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C8977C-17DB-42DA-81C6-6B466F519DA5}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF(IF(C2,-4,0)+IF(D2,0,1)+IF(E2,0,1)+IF(Sheet1!A$220&gt;1000,1,0)+IF(OR($B$2:$B$5),2,0)&lt;=0,1,IF(C2,-4,0)+IF(D2,0,1)+IF(E2,0,1)+IF(Sheet1!A$220&gt;1000,1,0)+IF(OR($B$2:$B$5),2,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f ca="1">((F2-1)*20)+RAND()*20</f>
+        <v>1.692684114672065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>IF(IF(C3,-4,0)+IF(D3,0,1)+IF(E3,0,1)+IF(Sheet1!A$220&gt;1000,1,0)+IF(OR($B$2:$B$5),2,0)&lt;=0,1,IF(C3,-4,0)+IF(D3,0,1)+IF(E3,0,1)+IF(Sheet1!A$220&gt;1000,1,0)+IF(OR($B$2:$B$5),2,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G5" ca="1" si="0">((F3-1)*20)+RAND()*20</f>
+        <v>14.76843879334292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>IF(IF(C4,-4,0)+IF(D4,0,1)+IF(E4,0,1)+IF(Sheet1!A$220&gt;1000,1,0)+IF(OR($B$2:$B$5),2,0)&lt;=0,1,IF(C4,-4,0)+IF(D4,0,1)+IF(E4,0,1)+IF(Sheet1!A$220&gt;1000,1,0)+IF(OR($B$2:$B$5),2,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.3969891947868511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>IF(IF(C5,-4,0)+IF(D5,0,1)+IF(E5,0,1)+IF(Sheet1!A$220&gt;1000,1,0)+IF(OR($B$2:$B$5),2,0)&lt;=0,1,IF(C5,-4,0)+IF(D5,0,1)+IF(E5,0,1)+IF(Sheet1!A$220&gt;1000,1,0)+IF(OR($B$2:$B$5),2,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>21.641472664355746</v>
       </c>
     </row>
   </sheetData>
